--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63961D47-3E15-FF49-8158-5D5E2A1247F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B6F9766D-6429-454D-87B8-A714D8126A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t>tmp_dir</t>
   </si>
@@ -67,9 +67,6 @@
     <t>do_dada</t>
   </si>
   <si>
-    <t>skip_db</t>
-  </si>
-  <si>
     <t>do_taxonomy</t>
   </si>
   <si>
@@ -353,6 +350,69 @@
   </si>
   <si>
     <t xml:space="preserve"> "/data/project/metaamp/TOOLS/dada_pipe/dada_env_test/bin"</t>
+  </si>
+  <si>
+    <t>any one path where you might have your raw data</t>
+  </si>
+  <si>
+    <t>directory with all raw data</t>
+  </si>
+  <si>
+    <t>you will usually have this somewhere in a project folder</t>
+  </si>
+  <si>
+    <t>path to the samples table</t>
+  </si>
+  <si>
+    <t>any one location of your samples table</t>
+  </si>
+  <si>
+    <t>you can keep this in your /work, because the dadasnake will copy it to your output directory</t>
+  </si>
+  <si>
+    <t>true or false</t>
+  </si>
+  <si>
+    <t>should primers be cut?</t>
+  </si>
+  <si>
+    <t>should DADA2 be run?</t>
+  </si>
+  <si>
+    <t>should taxonomic classification be done?</t>
+  </si>
+  <si>
+    <t>should some more steps be done (e.g. functional annotation)</t>
+  </si>
+  <si>
+    <t>any sequence of IUPAC DNA code</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t>name of forward primer</t>
+  </si>
+  <si>
+    <t>for your reference only</t>
+  </si>
+  <si>
+    <t>information on primers</t>
+  </si>
+  <si>
+    <t>information on forward primer</t>
+  </si>
+  <si>
+    <t>information on reverse primer</t>
+  </si>
+  <si>
+    <t>name of reverse primer</t>
+  </si>
+  <si>
+    <t>sequence of forward primer</t>
+  </si>
+  <si>
+    <t>sequence of reverse primer</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,25 +1273,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1259,10 +1319,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1273,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,13 +1344,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1298,188 +1358,266 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="G13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D16" t="s">
         <v>23</v>
       </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1487,25 +1625,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
-        <v>25</v>
-      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,15 +1656,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,19 +1672,19 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1555,20 +1693,20 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1581,38 +1719,35 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
-        <v>100</v>
-      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
-        <v>16</v>
+      <c r="B47" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1620,65 +1755,65 @@
       <c r="A49" t="s">
         <v>52</v>
       </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1691,13 +1826,16 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1705,39 +1843,39 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" t="s">
         <v>71</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B64">
-        <v>60</v>
+      <c r="B64" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" t="s">
         <v>74</v>
+      </c>
+      <c r="B65">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1752,21 +1890,21 @@
       <c r="A67" t="s">
         <v>76</v>
       </c>
-      <c r="B67">
-        <v>100</v>
+      <c r="B67" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>77</v>
       </c>
-      <c r="B68" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1774,7 +1912,7 @@
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1782,12 +1920,12 @@
         <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
@@ -1795,79 +1933,71 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" t="s">
         <v>80</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
-      <c r="B74">
-        <v>60</v>
-      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
-      <c r="B76" t="s">
-        <v>56</v>
+      <c r="B76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
-      <c r="B77">
-        <v>1</v>
+      <c r="B77" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="s">
         <v>86</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B79" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
         <v>92</v>
-      </c>
-      <c r="B82" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B6F9766D-6429-454D-87B8-A714D8126A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CB899CC6-CA2A-F841-8002-CC8AF46ADA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="config.default" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="239">
   <si>
     <t>tmp_dir</t>
   </si>
@@ -413,6 +413,330 @@
   </si>
   <si>
     <t>sequence of reverse primer</t>
+  </si>
+  <si>
+    <t>do you want to use paired-end sequencing data?</t>
+  </si>
+  <si>
+    <t>if true, you have to give r1_file and r2_file in the samples table, if false only r1_file is read (if you want to use only R2 files from a paired-end sequencing run, put them in the r1_file column)</t>
+  </si>
+  <si>
+    <t>fwd_1, rvs_1 or unknown</t>
+  </si>
+  <si>
+    <t>fwd_1: fwd primer in read 1; rvs_1: rvs primer in read 1; unknown: you don't know the sequencing direction or (for paired-end sequencing) the direction is mixed</t>
+  </si>
+  <si>
+    <t>if you want to run single-end data and don't know the direction, you have to establish this first, because the dadasnake will not help you</t>
+  </si>
+  <si>
+    <t>arguments for primer cutting by cutadapt</t>
+  </si>
+  <si>
+    <t>used in stage</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>primers and dada</t>
+  </si>
+  <si>
+    <t>postprocessing</t>
+  </si>
+  <si>
+    <t>1-length of primer</t>
+  </si>
+  <si>
+    <t>minimum length of detected primer</t>
+  </si>
+  <si>
+    <t>maximum number of primers removed from each end</t>
+  </si>
+  <si>
+    <t>any or both</t>
+  </si>
+  <si>
+    <t>reads are discarded if primer is not found on both or any end</t>
+  </si>
+  <si>
+    <t>any is the more strict setting; not used in single-end mode</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>% mismatch between read and each primer</t>
+  </si>
+  <si>
+    <t>don't set this to 1</t>
+  </si>
+  <si>
+    <t>length to truncate to (shorter reads are discarded)</t>
+  </si>
+  <si>
+    <t>ignored in single-ende mode</t>
+  </si>
+  <si>
+    <t>length after which fwd read is cut - shorter reads are discarded</t>
+  </si>
+  <si>
+    <t>0: no truncation by length; if you've cut the primers, this number refers to the length left after primer cutting</t>
+  </si>
+  <si>
+    <t>0: no truncation by length; ignored in single-ende mode; if you've cut the primers, this number refers to the length left after primer cutting</t>
+  </si>
+  <si>
+    <t>length after which rvs read is cut - shorter reads are discarded</t>
+  </si>
+  <si>
+    <t>reads are cut before the first position with this quality</t>
+  </si>
+  <si>
+    <t>0-40</t>
+  </si>
+  <si>
+    <t>a positive number</t>
+  </si>
+  <si>
+    <t>a positive integer</t>
+  </si>
+  <si>
+    <t>a positive integer or Inf</t>
+  </si>
+  <si>
+    <t>0 or a positive number</t>
+  </si>
+  <si>
+    <t>read pairs that contain a quality score lower than this in the fwd read after truncation will be discarded</t>
+  </si>
+  <si>
+    <t>read pairs that contain a quality score lower than this in the rvs read after truncation will be discarded</t>
+  </si>
+  <si>
+    <t>use with trunc_length</t>
+  </si>
+  <si>
+    <t>ignored in single-ende mode; use with trunc_length</t>
+  </si>
+  <si>
+    <t>filtering by maximum expected error after truncation: ﻿ Expected errors are calculated from the nominal definition of the quality score: EE = sum(10^(-Q/10))</t>
+  </si>
+  <si>
+    <t>After truncation, read pairs with higher than maxEE "expected errors" in fwd read will be discarded</t>
+  </si>
+  <si>
+    <t>After truncation, read pairs with higher than maxEE "expected errors" in rvs read will be discarded</t>
+  </si>
+  <si>
+    <t>use with trunc_length and/or truncQ; note that low truncQ or high trunc_length make it difficult to reach low maxEE values</t>
+  </si>
+  <si>
+    <t>ignored in single-ende mode; use with trunc_length and/or truncQ; note that low truncQ or high trunc_length make it difficult to reach low maxEE values</t>
+  </si>
+  <si>
+    <t>filtering by mimum length</t>
+  </si>
+  <si>
+    <t>Remove reads with length less than minLen on fwd read. minLen is enforced after trimming and truncation.</t>
+  </si>
+  <si>
+    <t>Remove reads with length less than minLen on rvs read. minLen is enforced after trimming and truncation.</t>
+  </si>
+  <si>
+    <t>settings for quality / length filtering; note on terminology: for paired sequencing fwd read refers to reads that had fwd primer or were declared as such (if no primer cutting was done); for single-end workflow, only the fwd setting is used, no matter the sequencing direction</t>
+  </si>
+  <si>
+    <t>filtering by maximum length</t>
+  </si>
+  <si>
+    <t>use with truncQ</t>
+  </si>
+  <si>
+    <t>ignored in single-ende mode; use with truncQ</t>
+  </si>
+  <si>
+    <t>Remove reads with length of fwd read greater than maxLen. maxLen is enforced before trimming and truncation.</t>
+  </si>
+  <si>
+    <t>Remove reads with length of rvs read greater than maxLen. maxLen is enforced before trimming and truncation.</t>
+  </si>
+  <si>
+    <t>filtering by minimum quality after tuncation</t>
+  </si>
+  <si>
+    <t>any positive integer</t>
+  </si>
+  <si>
+    <t>keep constant in re-runs</t>
+  </si>
+  <si>
+    <t>seed for error models</t>
+  </si>
+  <si>
+    <t>special DADA2 settings - default is good for Illumina</t>
+  </si>
+  <si>
+    <t>default is good for Illumina; set to 32 for 454 or PacBio</t>
+  </si>
+  <si>
+    <t>default is good for Illumina; set to -1 for 454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿Banding restricts the net cumulative number of insertion of one sequence relative to the other. </t>
+  </si>
+  <si>
+    <t>The cost of gaps in homopolymer regions (&gt;=3 repeated bases). Default is NULL, which causes homopolymer gaps to be treated as normal gaps.</t>
+  </si>
+  <si>
+    <t>NULL or a negative integer</t>
+  </si>
+  <si>
+    <t>settings for merging of read pairs</t>
+  </si>
+  <si>
+    <t>The minimum length of the overlap required for merging the forward and reverse reads.</t>
+  </si>
+  <si>
+    <t>0 or a positive integer</t>
+  </si>
+  <si>
+    <t>The maximum mismatches allowed in the overlap region.</t>
+  </si>
+  <si>
+    <t>ignored in single-ende mode; ﻿If TRUE, the forward and reverse-complemented reverse read are concatenated rather than merged, with a NNNNNNNNNN (10 Ns) spacer inserted between them.</t>
+  </si>
+  <si>
+    <t>whether reads should be concatenated rather than overlapped</t>
+  </si>
+  <si>
+    <t>whether overhangs should be trimmed off after merging</t>
+  </si>
+  <si>
+    <t>ignored in single-ende mode; usually, overhangs should have been removed with the primer cutting step</t>
+  </si>
+  <si>
+    <t>settings for chimera removal</t>
+  </si>
+  <si>
+    <t>consensus, ﻿pooled or per-sample</t>
+  </si>
+  <si>
+    <t>whether chimeras should be removed</t>
+  </si>
+  <si>
+    <t>how chimeras are detected</t>
+  </si>
+  <si>
+    <t>consensus: samples are checked individually and sequences are removed by consensus; pooled: the samples are pooled and chimeras are inferred from pool; samples are checked individually and sequence counts of chimeras are set to 0 in individual samples</t>
+  </si>
+  <si>
+    <t>directory where all the output will go</t>
+  </si>
+  <si>
+    <t>change this; a subdirectory of /work works best, but remember to move to a steady location afterwards; each output directory can hold the results of one completed pipeline only</t>
+  </si>
+  <si>
+    <t>settings for taxonomic annotation</t>
+  </si>
+  <si>
+    <t>settings for DECIPHER</t>
+  </si>
+  <si>
+    <t>whether DECIPHER should be used for taxonomic annotation</t>
+  </si>
+  <si>
+    <t>whether DECIPHER should be run before or after ITSx</t>
+  </si>
+  <si>
+    <t>the DB isn't cut to a specific ITS region, anyway</t>
+  </si>
+  <si>
+    <t>DECIPHER can work better than the mothur classifier, but it is slower and we don't have many databases for this software; you can run both DECIPHER and mothur (in parallel)</t>
+  </si>
+  <si>
+    <t>directory where the database sits</t>
+  </si>
+  <si>
+    <t>database name</t>
+  </si>
+  <si>
+    <t>1-100</t>
+  </si>
+  <si>
+    <t>threshold for classification</t>
+  </si>
+  <si>
+    <t>see DECIPHER documentation for details</t>
+  </si>
+  <si>
+    <t>bottom, top or both</t>
+  </si>
+  <si>
+    <t>if your reads are in the direction of the database (top), reverse complement (bottom) or you don't know (both)</t>
+  </si>
+  <si>
+    <t>both takes roughly twice as long as the others</t>
+  </si>
+  <si>
+    <t>number of bootstraps</t>
+  </si>
+  <si>
+    <t>seed for DECIPHER run</t>
+  </si>
+  <si>
+    <t>settings for Bayesian classifier (mothur implementation)</t>
+  </si>
+  <si>
+    <t>whether mothur's classify.seqs should be used for taxonomix annotation</t>
+  </si>
+  <si>
+    <t>we have more and more specific databases for mothur (and can make new ones), it's faster than DECIPHER, but potentially less correct; you can run both mothur and DECIPHER (in parallel)</t>
+  </si>
+  <si>
+    <t>whether mothur's classify.seqs should be run before or after ITSx</t>
+  </si>
+  <si>
+    <t>use an ITSx-cut database if run afterwards</t>
+  </si>
+  <si>
+    <t>cut-off for classification</t>
+  </si>
+  <si>
+    <t>settings for ITSx</t>
+  </si>
+  <si>
+    <t>whether ITSx should be run</t>
+  </si>
+  <si>
+    <t>only makes sense for analyses targetting an ITS region</t>
+  </si>
+  <si>
+    <t>minimum number of detected regions</t>
+  </si>
+  <si>
+    <t>counting includes SSU, LSU and 5.8 next to the ITS regions</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>ITS1 or ITS2</t>
+  </si>
+  <si>
+    <t>which region to extract</t>
+  </si>
+  <si>
+    <t>e-value for ITS detection</t>
+  </si>
+  <si>
+    <t>path to FAPROTAX DB</t>
+  </si>
+  <si>
+    <t>don't change, unless you have your own database</t>
+  </si>
+  <si>
+    <t>path to funguild DB</t>
   </si>
 </sst>
 </file>
@@ -555,7 +879,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +1057,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -896,9 +1226,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,6 +1286,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1254,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1265,13 +1610,14 @@
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="4" max="4" width="55.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.83203125" customWidth="1"/>
-    <col min="6" max="6" width="55.5" customWidth="1"/>
-    <col min="7" max="7" width="66.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
+    <col min="8" max="8" width="66.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -1281,719 +1627,1366 @@
       <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>97</v>
       </c>
       <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
       </c>
       <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
         <v>105</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
         <v>106</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
         <v>107</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>110</v>
       </c>
       <c r="F7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
         <v>111</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>114</v>
       </c>
       <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
         <v>113</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>116</v>
       </c>
       <c r="F9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>116</v>
       </c>
       <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>116</v>
       </c>
       <c r="F11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>116</v>
       </c>
       <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>121</v>
       </c>
       <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>122</v>
       </c>
       <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
         <v>123</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>121</v>
       </c>
       <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>122</v>
       </c>
       <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="D23" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
+      <c r="D26" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="B29">
+      <c r="D29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="B30">
+      <c r="D30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="B31">
+      <c r="D31" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
+      <c r="D33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
+      <c r="D34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="D36" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="D37" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="E39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="E40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
+      <c r="D42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>39</v>
       </c>
-      <c r="B43">
+      <c r="D43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="D44" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="D46" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="E46" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="B49">
+      <c r="D49" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="B50">
+      <c r="D50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="E50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>193</v>
+      </c>
+      <c r="H50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" t="s">
+        <v>203</v>
+      </c>
+      <c r="H56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>67</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="F61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" t="s">
+        <v>211</v>
+      </c>
+      <c r="H61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
         <v>71</v>
       </c>
-      <c r="B63">
+      <c r="D63" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="E63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
         <v>72</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="E64" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>217</v>
+      </c>
+      <c r="H64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
         <v>74</v>
       </c>
-      <c r="B65">
+      <c r="D65" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="E65" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
         <v>75</v>
       </c>
-      <c r="B66">
+      <c r="D66" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" t="s">
+        <v>220</v>
+      </c>
+      <c r="H66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="F67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
         <v>65</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" t="s">
+        <v>222</v>
+      </c>
+      <c r="H69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
         <v>66</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
         <v>67</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="F71" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" t="s">
+        <v>211</v>
+      </c>
+      <c r="H71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
         <v>69</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="E72" s="1"/>
+      <c r="F72" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>80</v>
       </c>
-      <c r="B73">
+      <c r="D73" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="F74" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="E75" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" t="s">
+        <v>228</v>
+      </c>
+      <c r="H75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>83</v>
       </c>
-      <c r="B76">
+      <c r="D76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="E76" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F76" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" t="s">
+        <v>230</v>
+      </c>
+      <c r="H76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="E77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" t="s">
+        <v>63</v>
+      </c>
+      <c r="G77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="1">
+      <c r="D78" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>140</v>
+      </c>
+      <c r="G79" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>89</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>90</v>
       </c>
+      <c r="F80" t="s">
+        <v>140</v>
+      </c>
+      <c r="G80" t="s">
+        <v>238</v>
+      </c>
+      <c r="H80" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B81" t="s">

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CB899CC6-CA2A-F841-8002-CC8AF46ADA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0C56C9C3-3B7E-8245-8A8E-1231F962FD4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="config.default" sheetId="1" r:id="rId1"/>
@@ -121,12 +121,6 @@
     <t xml:space="preserve">  count</t>
   </si>
   <si>
-    <t xml:space="preserve">  match</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> both</t>
-  </si>
-  <si>
     <t xml:space="preserve">  perc_mismatch</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>ITSx</t>
   </si>
   <si>
-    <t xml:space="preserve">  run</t>
-  </si>
-  <si>
     <t xml:space="preserve">  min_regions</t>
   </si>
   <si>
@@ -737,6 +728,15 @@
   </si>
   <si>
     <t>path to funguild DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  filter_if_not_match</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  do</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1226,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1239,6 +1239,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1602,7 +1606,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,28 +1623,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1651,16 +1655,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1671,13 +1675,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1688,13 +1692,13 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1702,16 +1706,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1719,16 +1723,16 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1739,16 +1743,16 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1759,16 +1763,16 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1779,13 +1783,13 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1796,13 +1800,13 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1813,13 +1817,13 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" t="s">
         <v>116</v>
-      </c>
-      <c r="F11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1830,13 +1834,13 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1847,7 +1851,7 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1861,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1872,13 +1876,13 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1889,16 +1893,16 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1912,7 +1916,7 @@
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1923,13 +1927,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1940,13 +1944,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1957,16 +1961,16 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1977,16 +1981,16 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1997,7 +2001,7 @@
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2008,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2025,972 +2029,972 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>236</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>0.2</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3">
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2">
         <v>200</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
         <v>45</v>
       </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
       <c r="H41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" t="s">
         <v>161</v>
-      </c>
-      <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s">
-        <v>162</v>
-      </c>
-      <c r="H42" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2">
         <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H47" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D49" s="2">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s">
+        <v>198</v>
+      </c>
+      <c r="H55" t="s">
         <v>199</v>
-      </c>
-      <c r="F55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s">
-        <v>201</v>
-      </c>
-      <c r="H55" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H56" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
+        <v>204</v>
+      </c>
+      <c r="H59" t="s">
         <v>207</v>
-      </c>
-      <c r="H59" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H60" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2">
         <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H64" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D65" s="2">
         <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="2">
         <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H68" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H70" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D73" s="2">
         <v>60</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H74" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>82</v>
+      <c r="B75" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H75" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H76" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D78" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G79" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H79" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G80" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0C56C9C3-3B7E-8245-8A8E-1231F962FD4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{16525D4B-C5D0-B04F-9513-5AE9DB08B92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
@@ -1226,13 +1226,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1605,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2042,7 +2039,7 @@
       <c r="B25" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>237</v>
       </c>
       <c r="E25" t="s">
@@ -2144,8 +2141,8 @@
       <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="3">
-        <v>25</v>
+      <c r="D31" s="6">
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>154</v>
@@ -2706,7 +2703,7 @@
       <c r="C64" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E64" t="s">
@@ -2882,7 +2879,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -2908,7 +2905,7 @@
       <c r="D76" s="2">
         <v>1</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>229</v>
       </c>
       <c r="F76" t="s">
@@ -2942,7 +2939,7 @@
       <c r="B78" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E78" t="s">

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{16525D4B-C5D0-B04F-9513-5AE9DB08B92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F42EA6C6-3DDF-F245-909E-48D831F07B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="250">
   <si>
     <t>tmp_dir</t>
   </si>
@@ -730,6 +730,9 @@
     <t>path to funguild DB</t>
   </si>
   <si>
+    <t>do</t>
+  </si>
+  <si>
     <t xml:space="preserve">  filter_if_not_match</t>
   </si>
   <si>
@@ -737,6 +740,36 @@
   </si>
   <si>
     <t xml:space="preserve">  do</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>tax_db</t>
+  </si>
+  <si>
+    <t>db_path</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>"/data/db/ncbi/blast/db/nt/2018-09-07"</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>e_val</t>
+  </si>
+  <si>
+    <t>"/data/project/metaamp/DBs/ncbi/tax2ID.sorted.tsv"</t>
+  </si>
+  <si>
+    <t>tax2id</t>
+  </si>
+  <si>
+    <t>tax2id table or "none"</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1259,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1238,6 +1271,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1600,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2037,10 +2073,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
         <v>141</v>
@@ -2868,22 +2904,20 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>79</v>
+      <c r="B74" t="s">
+        <v>245</v>
       </c>
       <c r="F74" t="s">
         <v>61</v>
       </c>
-      <c r="H74" t="s">
-        <v>224</v>
-      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>53</v>
+      <c r="C75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="E75" t="s">
         <v>113</v>
@@ -2891,106 +2925,183 @@
       <c r="F75" t="s">
         <v>61</v>
       </c>
-      <c r="G75" t="s">
-        <v>225</v>
-      </c>
-      <c r="H75" t="s">
-        <v>226</v>
-      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>229</v>
+      <c r="C76" t="s">
+        <v>242</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="F76" t="s">
         <v>61</v>
       </c>
-      <c r="G76" t="s">
-        <v>227</v>
-      </c>
-      <c r="H76" t="s">
-        <v>228</v>
-      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>81</v>
+      <c r="C77" t="s">
+        <v>241</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F77" t="s">
         <v>61</v>
       </c>
-      <c r="G77" t="s">
-        <v>231</v>
-      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>144</v>
+      <c r="C78" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.01</v>
       </c>
       <c r="F78" t="s">
         <v>61</v>
       </c>
-      <c r="G78" t="s">
-        <v>232</v>
-      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" t="s">
-        <v>85</v>
+      <c r="C79" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" t="s">
+        <v>249</v>
       </c>
       <c r="F79" t="s">
-        <v>137</v>
-      </c>
-      <c r="G79" t="s">
-        <v>233</v>
-      </c>
-      <c r="H79" t="s">
-        <v>234</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" t="s">
+        <v>225</v>
+      </c>
+      <c r="H81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" t="s">
+        <v>227</v>
+      </c>
+      <c r="H82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>144</v>
+      </c>
+      <c r="F84" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85" t="s">
+        <v>233</v>
+      </c>
+      <c r="H85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D86" t="s">
         <v>87</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F86" t="s">
         <v>137</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G86" t="s">
         <v>235</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H86" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B87" t="s">
         <v>89</v>
       </c>
     </row>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F42EA6C6-3DDF-F245-909E-48D831F07B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{897A70E1-A60E-9B4A-9B6E-E5EAB141B899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{897A70E1-A60E-9B4A-9B6E-E5EAB141B899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5FDAFCCC-098D-6C4C-9B94-4C4AF8F58606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="37560" yWindow="1060" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="config.default" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="256">
   <si>
     <t>tmp_dir</t>
   </si>
@@ -640,9 +640,6 @@
     <t>whether DECIPHER should be run before or after ITSx</t>
   </si>
   <si>
-    <t>the DB isn't cut to a specific ITS region, anyway</t>
-  </si>
-  <si>
     <t>DECIPHER can work better than the mothur classifier, but it is slower and we don't have many databases for this software; you can run both DECIPHER and mothur (in parallel)</t>
   </si>
   <si>
@@ -688,9 +685,6 @@
     <t>whether mothur's classify.seqs should be run before or after ITSx</t>
   </si>
   <si>
-    <t>use an ITSx-cut database if run afterwards</t>
-  </si>
-  <si>
     <t>cut-off for classification</t>
   </si>
   <si>
@@ -770,6 +764,30 @@
   </si>
   <si>
     <t>tax2id table or "none"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  indels</t>
+  </si>
+  <si>
+    <t>"--no-indels"</t>
+  </si>
+  <si>
+    <t>"--no-indels" or ""</t>
+  </si>
+  <si>
+    <t>whether indels in the primer sequence are allowed</t>
+  </si>
+  <si>
+    <t>if you set this to true, you also have to set ITSx[do] to true; the DB isn't cut to a specific ITS region</t>
+  </si>
+  <si>
+    <t>if you set this to true, you also have to set ITSx[do] to true; use an ITSx-cut database if run afterwards</t>
+  </si>
+  <si>
+    <t>target_min_length</t>
+  </si>
+  <si>
+    <t>target_max_length</t>
   </si>
 </sst>
 </file>
@@ -1636,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2073,10 +2091,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
         <v>141</v>
@@ -2112,50 +2130,47 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>35</v>
       </c>
       <c r="F28" t="s">
         <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
+      <c r="B29" t="s">
+        <v>35</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
       </c>
-      <c r="G29" t="s">
-        <v>149</v>
-      </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -2167,63 +2182,63 @@
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="6">
-        <v>13</v>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
         <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="H31" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D32" s="6">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>154</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>
       </c>
-      <c r="H32" t="s">
-        <v>163</v>
+      <c r="G32" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>155</v>
+      <c r="B33" t="s">
+        <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>45</v>
       </c>
-      <c r="G33" t="s">
-        <v>164</v>
-      </c>
       <c r="H33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -2235,49 +2250,49 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>40</v>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>155</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
       </c>
+      <c r="G35" t="s">
+        <v>165</v>
+      </c>
       <c r="H35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="2">
-        <v>200</v>
-      </c>
-      <c r="E36" t="s">
-        <v>156</v>
+      <c r="B36" t="s">
+        <v>40</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
       </c>
-      <c r="G36" t="s">
-        <v>169</v>
-      </c>
       <c r="H36" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E37" t="s">
         <v>156</v>
@@ -2286,43 +2301,46 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>41</v>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>156</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
       </c>
+      <c r="G38" t="s">
+        <v>170</v>
+      </c>
       <c r="H38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>157</v>
+      <c r="B39" t="s">
+        <v>41</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
       </c>
-      <c r="G39" t="s">
-        <v>175</v>
+      <c r="H39" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>42</v>
@@ -2334,46 +2352,43 @@
         <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>43</v>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>157</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
       </c>
+      <c r="G41" t="s">
+        <v>176</v>
+      </c>
       <c r="H41" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>158</v>
+      <c r="B42" t="s">
+        <v>43</v>
       </c>
       <c r="F42" t="s">
         <v>45</v>
       </c>
-      <c r="G42" t="s">
-        <v>159</v>
-      </c>
       <c r="H42" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -2385,129 +2400,129 @@
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>44</v>
+      <c r="C44" t="s">
+        <v>37</v>
       </c>
       <c r="D44" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H44" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D45" s="2">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
       </c>
+      <c r="G45" t="s">
+        <v>180</v>
+      </c>
       <c r="H45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="2">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>156</v>
+      <c r="A46" t="s">
+        <v>45</v>
       </c>
       <c r="F46" t="s">
         <v>45</v>
       </c>
-      <c r="G46" t="s">
-        <v>184</v>
-      </c>
       <c r="H46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D47" s="2">
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>49</v>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
       </c>
       <c r="F48" t="s">
         <v>45</v>
       </c>
+      <c r="G48" t="s">
+        <v>185</v>
+      </c>
       <c r="H48" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="2">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>156</v>
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="F49" t="s">
         <v>45</v>
       </c>
-      <c r="G49" t="s">
-        <v>188</v>
-      </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="F50" t="s">
         <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H50" t="s">
         <v>148</v>
@@ -2515,30 +2530,30 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="F51" t="s">
         <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
         <v>113</v>
@@ -2547,128 +2562,128 @@
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H52" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>55</v>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
       </c>
       <c r="F53" t="s">
         <v>45</v>
       </c>
+      <c r="G53" t="s">
+        <v>193</v>
+      </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s">
-        <v>113</v>
+      <c r="A54" t="s">
+        <v>55</v>
       </c>
       <c r="F54" t="s">
         <v>45</v>
       </c>
-      <c r="G54" t="s">
-        <v>197</v>
+      <c r="H54" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
         <v>45</v>
       </c>
       <c r="G55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" t="s">
         <v>198</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G56" t="s">
-        <v>200</v>
-      </c>
-      <c r="H56" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" t="s">
+        <v>200</v>
+      </c>
+      <c r="H57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>61</v>
-      </c>
-      <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="H57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>62</v>
       </c>
       <c r="F58" t="s">
         <v>61</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
-        <v>113</v>
+      <c r="B59" t="s">
+        <v>62</v>
       </c>
       <c r="F59" t="s">
         <v>61</v>
       </c>
-      <c r="G59" t="s">
-        <v>204</v>
-      </c>
       <c r="H59" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
         <v>113</v>
@@ -2677,7 +2692,7 @@
         <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H60" t="s">
         <v>206</v>
@@ -2685,96 +2700,99 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
       </c>
       <c r="F61" t="s">
         <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>66</v>
+      </c>
       <c r="F62" t="s">
         <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+      <c r="H62" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="2">
-        <v>60</v>
-      </c>
-      <c r="E63" t="s">
-        <v>210</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="s">
         <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>211</v>
-      </c>
-      <c r="H63" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D64" s="2">
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F64" t="s">
         <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H64" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="2">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
         <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="H65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="2">
         <v>100</v>
@@ -2786,60 +2804,57 @@
         <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>217</v>
-      </c>
-      <c r="H66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>53</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="2">
+        <v>100</v>
+      </c>
+      <c r="E67" t="s">
+        <v>156</v>
       </c>
       <c r="F67" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>75</v>
+      <c r="G67" t="s">
+        <v>216</v>
+      </c>
+      <c r="H67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F68" t="s">
         <v>61</v>
       </c>
-      <c r="H68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" t="s">
-        <v>113</v>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>75</v>
       </c>
       <c r="F69" t="s">
         <v>61</v>
       </c>
-      <c r="G69" t="s">
-        <v>219</v>
-      </c>
       <c r="H69" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>113</v>
@@ -2848,261 +2863,294 @@
         <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H70" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="E71" t="s">
+        <v>113</v>
       </c>
       <c r="F71" t="s">
         <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>76</v>
+      </c>
       <c r="F72" t="s">
         <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="H72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="2">
-        <v>60</v>
-      </c>
-      <c r="E73" t="s">
-        <v>210</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="1"/>
       <c r="F73" t="s">
         <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>245</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="2">
+        <v>60</v>
+      </c>
+      <c r="E74" t="s">
+        <v>209</v>
       </c>
       <c r="F74" t="s">
         <v>61</v>
       </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>236</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E75" t="s">
-        <v>113</v>
+      <c r="G74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>243</v>
       </c>
       <c r="F75" t="s">
         <v>61</v>
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>242</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" t="s">
+        <v>113</v>
       </c>
       <c r="F76" t="s">
         <v>61</v>
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F77" t="s">
         <v>61</v>
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>246</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0.01</v>
+        <v>239</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="F78" t="s">
         <v>61</v>
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>248</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E79" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.01</v>
       </c>
       <c r="F79" t="s">
         <v>61</v>
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>79</v>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" t="s">
+        <v>247</v>
       </c>
       <c r="F80" t="s">
         <v>61</v>
       </c>
-      <c r="H80" t="s">
-        <v>224</v>
-      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" t="s">
-        <v>113</v>
+      <c r="A81" t="s">
+        <v>79</v>
       </c>
       <c r="F81" t="s">
         <v>61</v>
       </c>
-      <c r="G81" t="s">
-        <v>225</v>
-      </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>229</v>
+      <c r="B82" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" t="s">
+        <v>113</v>
       </c>
       <c r="F82" t="s">
         <v>61</v>
       </c>
       <c r="G82" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H82" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" t="s">
-        <v>230</v>
+        <v>80</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="F83" t="s">
         <v>61</v>
       </c>
       <c r="G83" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="H83" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>81</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="F84" t="s">
         <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" t="s">
-        <v>85</v>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>144</v>
       </c>
       <c r="F85" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="G85" t="s">
-        <v>233</v>
-      </c>
-      <c r="H85" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F86" t="s">
         <v>137</v>
       </c>
       <c r="G86" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H86" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" t="s">
+        <v>137</v>
+      </c>
+      <c r="G87" t="s">
+        <v>233</v>
+      </c>
+      <c r="H87" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>89</v>
+      </c>
+      <c r="F88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5FDAFCCC-098D-6C4C-9B94-4C4AF8F58606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6C942D0B-DCBA-4641-BC38-328DCBD7B68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37560" yWindow="1060" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="config.default" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="302">
   <si>
     <t>tmp_dir</t>
   </si>
@@ -244,9 +244,6 @@
     <t xml:space="preserve">    seed</t>
   </si>
   <si>
-    <t xml:space="preserve">  look_for_species</t>
-  </si>
-  <si>
     <t xml:space="preserve">  mothur</t>
   </si>
   <si>
@@ -274,24 +271,9 @@
     <t xml:space="preserve">  e_val</t>
   </si>
   <si>
-    <t>Faprotax_DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "/data/project/metaamp/DBs/amplicon/FAPROTAX.txt"</t>
-  </si>
-  <si>
-    <t>Funguild_DB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "/data/project/metaamp/DBs/amplicon/funguild_db.json"</t>
   </si>
   <si>
-    <t>keep_target_taxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> .</t>
-  </si>
-  <si>
     <t>top-level parameters</t>
   </si>
   <si>
@@ -646,9 +628,6 @@
     <t>directory where the database sits</t>
   </si>
   <si>
-    <t>database name</t>
-  </si>
-  <si>
     <t>1-100</t>
   </si>
   <si>
@@ -715,12 +694,6 @@
     <t>e-value for ITS detection</t>
   </si>
   <si>
-    <t>path to FAPROTAX DB</t>
-  </si>
-  <si>
-    <t>don't change, unless you have your own database</t>
-  </si>
-  <si>
     <t>path to funguild DB</t>
   </si>
   <si>
@@ -739,12 +712,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>tax_db</t>
-  </si>
-  <si>
-    <t>db_path</t>
-  </si>
-  <si>
     <t>nt</t>
   </si>
   <si>
@@ -754,15 +721,9 @@
     <t>blast</t>
   </si>
   <si>
-    <t>e_val</t>
-  </si>
-  <si>
     <t>"/data/project/metaamp/DBs/ncbi/tax2ID.sorted.tsv"</t>
   </si>
   <si>
-    <t>tax2id</t>
-  </si>
-  <si>
     <t>tax2id table or "none"</t>
   </si>
   <si>
@@ -788,6 +749,183 @@
   </si>
   <si>
     <t>target_max_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    look_for_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    spec_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "/data/project/metaamp/DBs/decipher/silva_species_assignment_v132.fa.gz"</t>
+  </si>
+  <si>
+    <t>decipher database name</t>
+  </si>
+  <si>
+    <t>whether you want to run a species-level annotation after DECIPHER</t>
+  </si>
+  <si>
+    <t>the beginning of the filename of a mothur-formatted database</t>
+  </si>
+  <si>
+    <t>whether blast should be run on all non-annotated sequences</t>
+  </si>
+  <si>
+    <t>path to blast database</t>
+  </si>
+  <si>
+    <t>a DADA2-formatted species assignment database with path</t>
+  </si>
+  <si>
+    <t>name (without suffix) of blast database</t>
+  </si>
+  <si>
+    <t>e-value for blast</t>
+  </si>
+  <si>
+    <t>species is an overkill for 16S data; if you set this, you need to have a specialised database (currently available for 16S silva 132)</t>
+  </si>
+  <si>
+    <t>whether taxonomic data is available in a tax2id table</t>
+  </si>
+  <si>
+    <t>this also assumes there is a taxdb file in the db_path</t>
+  </si>
+  <si>
+    <t>final_table_filtering</t>
+  </si>
+  <si>
+    <t>settings for filtering the final OTU table (before postprocessing, if postprocessing is done)</t>
+  </si>
+  <si>
+    <t>hand_off</t>
+  </si>
+  <si>
+    <t>dada, taxonomy</t>
+  </si>
+  <si>
+    <t>dada, taxonomy, postprocessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  phyloseq</t>
+  </si>
+  <si>
+    <t>settings deciding if additional formats should be given</t>
+  </si>
+  <si>
+    <t>whether a phyloseq object should be returned</t>
+  </si>
+  <si>
+    <t>whether a biome format output should be written</t>
+  </si>
+  <si>
+    <t>contains OTU table and taxonomy and tree (if each was run; if tree is run on pruned OTU table, phyloseq object contains filtered dataset)</t>
+  </si>
+  <si>
+    <t>biome contains OTU table or OTU table and taxonomy (if taxonomy was run); biome table is never filtered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    e_val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tax2id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    funguild_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  funguild</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>"."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  keep_target_taxa</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  treeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rarefaction_curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  length_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  biom</t>
+  </si>
+  <si>
+    <t>taxonomy, postprocessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fasttreeMP</t>
+  </si>
+  <si>
+    <t>"/data/project/metaamp/TOOLS/FastTreeMP"</t>
+  </si>
+  <si>
+    <t>path to fasttreeMP executable</t>
+  </si>
+  <si>
+    <t>whether a filtered version of the OTU table and sequences should be made and used for the post-processing steps</t>
+  </si>
+  <si>
+    <t>"." or a regular expression for taxa to keep, e.g. "Bacteria"</t>
+  </si>
+  <si>
+    <t>pattern to look for in the taxstrings</t>
+  </si>
+  <si>
+    <t>done based on mothur and DECIPHER result; "." means all are kept; both taxstrings are searched, if both classifiers were used</t>
+  </si>
+  <si>
+    <t>settings for length filter</t>
+  </si>
+  <si>
+    <t>maximum length of sequence</t>
+  </si>
+  <si>
+    <t>minimal length sequence</t>
+  </si>
+  <si>
+    <t>doesn't care for ITSx results</t>
+  </si>
+  <si>
+    <t>whether funguild should be run</t>
+  </si>
+  <si>
+    <t>whether a phylogenetic tree should be made</t>
+  </si>
+  <si>
+    <t>whether a rarefaction curve should be made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    classifier</t>
+  </si>
+  <si>
+    <t>mothur</t>
+  </si>
+  <si>
+    <t>mothur or decipher, depending on what was used</t>
+  </si>
+  <si>
+    <t>which classifier to use</t>
+  </si>
+  <si>
+    <t>can only be one</t>
+  </si>
+  <si>
+    <t>settings for postprocessinf</t>
+  </si>
+  <si>
+    <t>settings for funguild</t>
   </si>
 </sst>
 </file>
@@ -930,7 +1068,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,12 +1248,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1277,9 +1409,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1292,6 +1423,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1654,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="D68" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1805,7 @@
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="55.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="55.5" customWidth="1"/>
@@ -1674,277 +1814,280 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>105</v>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>106</v>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>194</v>
+      </c>
+      <c r="H9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" t="s">
-        <v>126</v>
+      <c r="H15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1952,708 +2095,705 @@
       <c r="G16" t="s">
         <v>120</v>
       </c>
-      <c r="H16" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
+      <c r="H18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>138</v>
+      <c r="A23" t="s">
+        <v>30</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
-        <v>139</v>
+      <c r="H23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>236</v>
+        <v>32</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.2</v>
+        <v>226</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>249</v>
+        <v>33</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.2</v>
       </c>
       <c r="E27" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>35</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>156</v>
+      <c r="B30" t="s">
+        <v>35</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
-      <c r="G30" t="s">
-        <v>149</v>
-      </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
         <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="6">
-        <v>13</v>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D33" s="5">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>148</v>
       </c>
       <c r="F33" t="s">
         <v>45</v>
       </c>
-      <c r="H33" t="s">
-        <v>163</v>
+      <c r="G33" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>155</v>
+      <c r="B34" t="s">
+        <v>39</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
       </c>
-      <c r="G34" t="s">
-        <v>164</v>
-      </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="2">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H35" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>40</v>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>149</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
       </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2">
-        <v>200</v>
-      </c>
-      <c r="E37" t="s">
-        <v>156</v>
+      <c r="B37" t="s">
+        <v>40</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
       </c>
-      <c r="G37" t="s">
-        <v>169</v>
-      </c>
       <c r="H37" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="2">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="D38" s="1">
+        <v>200</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>41</v>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
       </c>
+      <c r="G39" t="s">
+        <v>164</v>
+      </c>
       <c r="H39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" t="s">
-        <v>157</v>
+      <c r="B40" t="s">
+        <v>41</v>
       </c>
       <c r="F40" t="s">
         <v>45</v>
       </c>
-      <c r="G40" t="s">
-        <v>175</v>
+      <c r="H40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>43</v>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>151</v>
       </c>
       <c r="F42" t="s">
         <v>45</v>
       </c>
+      <c r="G42" t="s">
+        <v>170</v>
+      </c>
       <c r="H42" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>158</v>
+      <c r="B43" t="s">
+        <v>43</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
-      <c r="G43" t="s">
-        <v>159</v>
-      </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F44" t="s">
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H44" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="2">
-        <v>100</v>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D46" s="1">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
       </c>
       <c r="F46" t="s">
         <v>45</v>
       </c>
+      <c r="G46" t="s">
+        <v>174</v>
+      </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="2">
-        <v>16</v>
-      </c>
-      <c r="E47" t="s">
-        <v>156</v>
+      <c r="A47" t="s">
+        <v>45</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
       </c>
-      <c r="G47" t="s">
-        <v>184</v>
-      </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D48" s="1">
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
         <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H48" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>49</v>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>180</v>
       </c>
       <c r="F49" t="s">
         <v>45</v>
       </c>
+      <c r="G49" t="s">
+        <v>179</v>
+      </c>
       <c r="H49" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="2">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>156</v>
+      <c r="A50" t="s">
+        <v>49</v>
       </c>
       <c r="F50" t="s">
         <v>45</v>
       </c>
-      <c r="G50" t="s">
-        <v>188</v>
-      </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="D51" s="1">
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s">
         <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="F52" t="s">
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H52" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
         <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H53" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>55</v>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
       </c>
       <c r="F54" t="s">
         <v>45</v>
       </c>
+      <c r="G54" t="s">
+        <v>187</v>
+      </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>113</v>
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="F55" t="s">
         <v>45</v>
       </c>
-      <c r="G55" t="s">
-        <v>197</v>
+      <c r="H55" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>60</v>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H57" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2664,7 +2804,7 @@
         <v>61</v>
       </c>
       <c r="H58" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2675,482 +2815,773 @@
         <v>61</v>
       </c>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
         <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
         <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F62" t="s">
         <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H62" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="1"/>
       <c r="F63" t="s">
         <v>61</v>
       </c>
-      <c r="G63" t="s">
-        <v>208</v>
+      <c r="G63" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s">
         <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F65" t="s">
         <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
         <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
         <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C68" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>107</v>
       </c>
       <c r="F68" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>75</v>
+      <c r="G68" t="s">
+        <v>247</v>
+      </c>
+      <c r="H68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C69" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="F69" t="s">
         <v>61</v>
       </c>
-      <c r="H69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s">
-        <v>113</v>
+      <c r="G69" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>74</v>
       </c>
       <c r="F70" t="s">
         <v>61</v>
       </c>
-      <c r="G70" t="s">
-        <v>218</v>
-      </c>
       <c r="H70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F71" t="s">
         <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H71" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" t="s">
+        <v>107</v>
       </c>
       <c r="F72" t="s">
         <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F73" t="s">
         <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="H73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="2">
-        <v>60</v>
-      </c>
-      <c r="E74" t="s">
-        <v>209</v>
+        <v>67</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F74" t="s">
         <v>61</v>
       </c>
-      <c r="G74" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>243</v>
+      <c r="G74" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="1">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s">
+        <v>202</v>
       </c>
       <c r="F75" t="s">
         <v>61</v>
       </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>234</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E76" t="s">
-        <v>113</v>
-      </c>
+      <c r="G75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="1"/>
       <c r="F76" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>242</v>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" t="s">
+        <v>107</v>
       </c>
       <c r="F77" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>239</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>241</v>
+      <c r="G77" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="F78" t="s">
         <v>61</v>
       </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>244</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0.01</v>
+      <c r="G78" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F79" t="s">
         <v>61</v>
       </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>246</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" t="s">
-        <v>247</v>
+      <c r="G79" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.01</v>
       </c>
       <c r="F80" t="s">
         <v>61</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="4" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>79</v>
+      <c r="B81" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" t="s">
+        <v>234</v>
       </c>
       <c r="F81" t="s">
         <v>61</v>
       </c>
+      <c r="G81" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="H81" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" t="s">
-        <v>113</v>
+      <c r="A82" t="s">
+        <v>78</v>
       </c>
       <c r="F82" t="s">
         <v>61</v>
       </c>
-      <c r="G82" t="s">
-        <v>223</v>
-      </c>
       <c r="H82" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" s="2">
-        <v>1</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>227</v>
+      <c r="B83" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" t="s">
+        <v>107</v>
       </c>
       <c r="F83" t="s">
         <v>61</v>
       </c>
       <c r="G83" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H83" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" t="s">
-        <v>228</v>
+        <v>79</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="F84" t="s">
         <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="H84" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>80</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="F85" t="s">
         <v>61</v>
       </c>
       <c r="G85" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" t="s">
-        <v>85</v>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>138</v>
       </c>
       <c r="F86" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
-        <v>231</v>
-      </c>
-      <c r="H86" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" t="s">
-        <v>87</v>
-      </c>
+      <c r="A87" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="2"/>
       <c r="F87" t="s">
-        <v>137</v>
-      </c>
-      <c r="G87" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="H87" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>89</v>
+      <c r="B88" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E88" t="s">
+        <v>107</v>
       </c>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>260</v>
+      </c>
+      <c r="G88" t="s">
+        <v>265</v>
+      </c>
+      <c r="H88" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>254</v>
+      <c r="B89" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" t="s">
+        <v>280</v>
+      </c>
+      <c r="G89" t="s">
+        <v>264</v>
+      </c>
+      <c r="H89" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>255</v>
+      <c r="A90" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="D90" s="2"/>
+      <c r="F90" t="s">
+        <v>131</v>
+      </c>
+      <c r="H90" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" t="s">
+        <v>285</v>
+      </c>
+      <c r="F92" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H92" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="F93" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F95" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="5"/>
+      <c r="F96" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="F97" t="s">
+        <v>131</v>
+      </c>
+      <c r="H97" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E98" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F99" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" t="s">
+        <v>224</v>
+      </c>
+      <c r="H99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E100" t="s">
+        <v>297</v>
+      </c>
+      <c r="F100" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" t="s">
+        <v>298</v>
+      </c>
+      <c r="H100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="5"/>
+      <c r="E101" t="s">
+        <v>107</v>
+      </c>
+      <c r="F101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F102" t="s">
+        <v>131</v>
+      </c>
+      <c r="G102" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F103" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" t="s">
+        <v>283</v>
+      </c>
+      <c r="H103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6C942D0B-DCBA-4641-BC38-328DCBD7B68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1EA263-A7EF-144B-8084-AAB991950C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config.default" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="307">
   <si>
     <t>tmp_dir</t>
   </si>
@@ -926,12 +926,27 @@
   </si>
   <si>
     <t>settings for funguild</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"" or a valid email address</t>
+  </si>
+  <si>
+    <t>email address for mail notification</t>
+  </si>
+  <si>
+    <t>keep empty if you don't want emails. Check spelling, it's not tested.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1793,11 +1808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D68" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,53 +1855,56 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
         <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
         <v>95</v>
@@ -1894,16 +1912,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
         <v>95</v>
@@ -1911,16 +1929,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
         <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
         <v>95</v>
@@ -1928,84 +1946,84 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
         <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
         <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>194</v>
+      </c>
+      <c r="H10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2017,12 +2035,12 @@
         <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -2034,12 +2052,12 @@
         <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -2051,306 +2069,303 @@
         <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
-        <v>120</v>
+      <c r="H16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
-        <v>121</v>
+      <c r="H19" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
+      <c r="A24" t="s">
+        <v>30</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="G24" t="s">
-        <v>133</v>
+      <c r="H24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>227</v>
+        <v>32</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.2</v>
+        <v>226</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>236</v>
+        <v>33</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.2</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>35</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>150</v>
+      <c r="B31" t="s">
+        <v>35</v>
       </c>
       <c r="F31" t="s">
         <v>45</v>
       </c>
-      <c r="G31" t="s">
-        <v>143</v>
-      </c>
       <c r="H31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -2362,63 +2377,63 @@
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="5">
-        <v>13</v>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F33" t="s">
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D34" s="5">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>148</v>
       </c>
       <c r="F34" t="s">
         <v>45</v>
       </c>
-      <c r="H34" t="s">
-        <v>157</v>
+      <c r="G34" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
+      <c r="B35" t="s">
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
       </c>
-      <c r="G35" t="s">
-        <v>158</v>
-      </c>
       <c r="H35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -2430,49 +2445,49 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>40</v>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
       </c>
       <c r="F37" t="s">
         <v>45</v>
       </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="1">
-        <v>200</v>
-      </c>
-      <c r="E38" t="s">
-        <v>150</v>
+      <c r="B38" t="s">
+        <v>40</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
       </c>
-      <c r="G38" t="s">
-        <v>163</v>
-      </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E39" t="s">
         <v>150</v>
@@ -2481,43 +2496,46 @@
         <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>41</v>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
       </c>
       <c r="F40" t="s">
         <v>45</v>
       </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" t="s">
-        <v>151</v>
+      <c r="B41" t="s">
+        <v>41</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
       </c>
-      <c r="G41" t="s">
-        <v>169</v>
+      <c r="H41" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>42</v>
@@ -2529,46 +2547,43 @@
         <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H42" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>43</v>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>151</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
+      <c r="G43" t="s">
+        <v>170</v>
+      </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>152</v>
+      <c r="B44" t="s">
+        <v>43</v>
       </c>
       <c r="F44" t="s">
         <v>45</v>
       </c>
-      <c r="G44" t="s">
-        <v>153</v>
-      </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2580,129 +2595,129 @@
         <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>44</v>
+      <c r="C46" t="s">
+        <v>37</v>
       </c>
       <c r="D46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F46" t="s">
         <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>172</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
       </c>
+      <c r="G47" t="s">
+        <v>174</v>
+      </c>
       <c r="H47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="1">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>150</v>
+      <c r="A48" t="s">
+        <v>45</v>
       </c>
       <c r="F48" t="s">
         <v>45</v>
       </c>
-      <c r="G48" t="s">
-        <v>178</v>
-      </c>
       <c r="H48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>49</v>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
       </c>
       <c r="F50" t="s">
         <v>45</v>
       </c>
+      <c r="G50" t="s">
+        <v>179</v>
+      </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="1">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>150</v>
+      <c r="A51" t="s">
+        <v>49</v>
       </c>
       <c r="F51" t="s">
         <v>45</v>
       </c>
-      <c r="G51" t="s">
-        <v>182</v>
-      </c>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H52" t="s">
         <v>142</v>
@@ -2710,30 +2725,30 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="F53" t="s">
         <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E54" t="s">
         <v>107</v>
@@ -2742,108 +2757,108 @@
         <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H54" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>55</v>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
       </c>
       <c r="F55" t="s">
         <v>45</v>
       </c>
+      <c r="G55" t="s">
+        <v>187</v>
+      </c>
       <c r="H55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s">
-        <v>107</v>
+      <c r="A56" t="s">
+        <v>55</v>
       </c>
       <c r="F56" t="s">
         <v>45</v>
       </c>
-      <c r="G56" t="s">
-        <v>191</v>
+      <c r="H56" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
         <v>45</v>
       </c>
       <c r="G57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" t="s">
         <v>192</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H58" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>61</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="H58" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>62</v>
       </c>
       <c r="F59" t="s">
         <v>61</v>
       </c>
       <c r="H59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s">
-        <v>107</v>
+      <c r="B60" t="s">
+        <v>62</v>
       </c>
       <c r="F60" t="s">
         <v>61</v>
       </c>
-      <c r="G60" t="s">
-        <v>198</v>
-      </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
         <v>107</v>
@@ -2852,103 +2867,106 @@
         <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="E62" t="s">
+        <v>107</v>
       </c>
       <c r="F62" t="s">
         <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>246</v>
+      <c r="G63" t="s">
+        <v>201</v>
+      </c>
+      <c r="H63" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="1">
-        <v>60</v>
-      </c>
-      <c r="E64" t="s">
-        <v>202</v>
+        <v>67</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F64" t="s">
         <v>61</v>
       </c>
-      <c r="G64" t="s">
-        <v>203</v>
-      </c>
-      <c r="H64" t="s">
-        <v>204</v>
+      <c r="G64" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D65" s="1">
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
         <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H65" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="1">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="F66" t="s">
         <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="H66" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="1">
         <v>100</v>
@@ -2960,83 +2978,80 @@
         <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>209</v>
-      </c>
-      <c r="H67" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C68" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>53</v>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="1">
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
         <v>61</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H68" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>245</v>
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
+        <v>107</v>
       </c>
       <c r="F69" t="s">
         <v>61</v>
       </c>
       <c r="G69" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="H69" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>74</v>
+      <c r="C70" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="F70" t="s">
         <v>61</v>
       </c>
-      <c r="H70" t="s">
-        <v>210</v>
+      <c r="G70" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s">
-        <v>107</v>
+      <c r="B71" t="s">
+        <v>74</v>
       </c>
       <c r="F71" t="s">
         <v>61</v>
       </c>
-      <c r="G71" t="s">
-        <v>211</v>
-      </c>
       <c r="H71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
         <v>107</v>
@@ -3045,269 +3060,269 @@
         <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H72" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="E73" t="s">
+        <v>107</v>
       </c>
       <c r="F73" t="s">
         <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s">
         <v>61</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>248</v>
+      <c r="G74" t="s">
+        <v>201</v>
+      </c>
+      <c r="H74" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="1">
-        <v>60</v>
-      </c>
-      <c r="E75" t="s">
-        <v>202</v>
+        <v>67</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F75" t="s">
         <v>61</v>
       </c>
-      <c r="G75" t="s">
-        <v>214</v>
+      <c r="G75" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" s="1"/>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="1">
+        <v>60</v>
+      </c>
+      <c r="E76" t="s">
+        <v>202</v>
+      </c>
       <c r="F76" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="4"/>
+      <c r="G76" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E77" t="s">
-        <v>107</v>
-      </c>
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="1"/>
       <c r="F77" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>231</v>
+        <v>63</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" t="s">
+        <v>107</v>
       </c>
       <c r="F78" t="s">
         <v>61</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F79" t="s">
         <v>61</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>268</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.01</v>
+        <v>67</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="F80" t="s">
         <v>61</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>269</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E81" t="s">
-        <v>234</v>
+        <v>268</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.01</v>
       </c>
       <c r="F81" t="s">
         <v>61</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H81" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>78</v>
+      <c r="B82" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" t="s">
+        <v>234</v>
       </c>
       <c r="F82" t="s">
         <v>61</v>
       </c>
+      <c r="G82" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="H82" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" t="s">
-        <v>107</v>
+      <c r="A83" t="s">
+        <v>78</v>
       </c>
       <c r="F83" t="s">
         <v>61</v>
       </c>
-      <c r="G83" t="s">
-        <v>216</v>
-      </c>
       <c r="H83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="1">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>220</v>
+      <c r="B84" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" t="s">
+        <v>107</v>
       </c>
       <c r="F84" t="s">
         <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E85" t="s">
-        <v>221</v>
+        <v>79</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="F85" t="s">
         <v>61</v>
       </c>
       <c r="G85" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="H85" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>80</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="F86" t="s">
         <v>61</v>
       </c>
       <c r="G86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>138</v>
+      </c>
+      <c r="F87" t="s">
+        <v>61</v>
+      </c>
+      <c r="G87" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="F87" t="s">
+      <c r="D88" s="2"/>
+      <c r="F88" t="s">
         <v>261</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H88" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E88" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" t="s">
-        <v>260</v>
-      </c>
-      <c r="G88" t="s">
-        <v>265</v>
-      </c>
-      <c r="H88" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>229</v>
@@ -3316,271 +3331,291 @@
         <v>107</v>
       </c>
       <c r="F89" t="s">
+        <v>260</v>
+      </c>
+      <c r="G89" t="s">
+        <v>265</v>
+      </c>
+      <c r="H89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E90" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" t="s">
         <v>280</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>264</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H90" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="D90" s="2"/>
-      <c r="F90" t="s">
-        <v>131</v>
-      </c>
-      <c r="H90" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E91" t="s">
-        <v>107</v>
-      </c>
+      <c r="B91" s="4"/>
+      <c r="D91" s="2"/>
       <c r="F91" t="s">
         <v>131</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>284</v>
+      <c r="H91" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="1" t="s">
-        <v>273</v>
+        <v>225</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="E92" t="s">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="F92" t="s">
         <v>131</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="H92" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C93" s="4"/>
+      <c r="D93" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93" t="s">
+        <v>285</v>
+      </c>
       <c r="F93" t="s">
         <v>131</v>
       </c>
-      <c r="G93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="H93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0</v>
-      </c>
+      <c r="B94" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="F94" t="s">
         <v>131</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>275</v>
+        <v>241</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
       </c>
       <c r="F95" t="s">
         <v>131</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H95" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="5"/>
+      <c r="C96" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="F96" t="s">
         <v>131</v>
       </c>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="H96" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="A97" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="5"/>
       <c r="F97" t="s">
         <v>131</v>
       </c>
+      <c r="G97" s="4"/>
       <c r="H97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E98" t="s">
-        <v>107</v>
-      </c>
+      <c r="B98" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
       <c r="F98" t="s">
         <v>131</v>
       </c>
-      <c r="G98" t="s">
-        <v>292</v>
+      <c r="H98" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" t="s">
+        <v>107</v>
       </c>
       <c r="F99" t="s">
         <v>131</v>
       </c>
       <c r="G99" t="s">
-        <v>224</v>
-      </c>
-      <c r="H99" t="s">
-        <v>95</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E100" t="s">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="F100" t="s">
         <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="H100" t="s">
-        <v>299</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
-      <c r="B101" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="5"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="F101" t="s">
         <v>131</v>
       </c>
+      <c r="G101" t="s">
+        <v>298</v>
+      </c>
+      <c r="H101" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>229</v>
+      <c r="B102" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
+      <c r="E102" t="s">
+        <v>107</v>
       </c>
       <c r="F102" t="s">
         <v>131</v>
-      </c>
-      <c r="G102" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>282</v>
+        <v>63</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F103" t="s">
         <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>283</v>
-      </c>
-      <c r="H103" t="s">
-        <v>95</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E104" t="s">
-        <v>107</v>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="F104" t="s">
         <v>131</v>
       </c>
       <c r="G104" t="s">
+        <v>283</v>
+      </c>
+      <c r="H104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E105" t="s">
+        <v>107</v>
+      </c>
+      <c r="F105" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" t="s">
         <v>294</v>
       </c>
     </row>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/iDiv/Emission/dadasnake/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{092E36F7-ED65-A645-9693-F0026F674E51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E95A545-5648-C04B-8A04-C640CD1FCE1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="16980" windowHeight="17040" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$138</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="402">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -768,9 +768,6 @@
     <t xml:space="preserve">    tax_db</t>
   </si>
   <si>
-    <t>"SILVA_SSU_r132_March2018.RData"</t>
-  </si>
-  <si>
     <t>decipher database name</t>
   </si>
   <si>
@@ -825,9 +822,6 @@
     <t xml:space="preserve">    spec_db</t>
   </si>
   <si>
-    <t>"../DBs/decipher/silva_species_assignment_v132.fa.gz"</t>
-  </si>
-  <si>
     <t>a DADA2-formatted species assignment database with path</t>
   </si>
   <si>
@@ -849,12 +843,6 @@
     <t>if you set this to true, you also have to set ITSx[do] to true; use an ITSx-cut database if run afterwards</t>
   </si>
   <si>
-    <t>"../DBs/amplicon"</t>
-  </si>
-  <si>
-    <t>"ifoh_515f.iroh_806r.silva_132"</t>
-  </si>
-  <si>
     <t>the beginning of the filename of a mothur-formatted database</t>
   </si>
   <si>
@@ -873,9 +861,6 @@
     <t>whether blast should be run</t>
   </si>
   <si>
-    <t>"../DBs/nt/2018-09-07"</t>
-  </si>
-  <si>
     <t>path to blast database</t>
   </si>
   <si>
@@ -1029,9 +1014,6 @@
     <t>target_max_length</t>
   </si>
   <si>
-    <t>Inf</t>
-  </si>
-  <si>
     <t>maximum length of sequence</t>
   </si>
   <si>
@@ -1050,9 +1032,6 @@
     <t xml:space="preserve">    funguild_db</t>
   </si>
   <si>
-    <t>"../DBs/amplicon/funguild_db.json"</t>
-  </si>
-  <si>
     <t>path to funguild DB</t>
   </si>
   <si>
@@ -1080,9 +1059,6 @@
     <t xml:space="preserve">    fasttreeMP</t>
   </si>
   <si>
-    <t>"FastTreeMP"</t>
-  </si>
-  <si>
     <t>path to fasttreeMP executable</t>
   </si>
   <si>
@@ -1120,6 +1096,144 @@
   </si>
   <si>
     <t xml:space="preserve"> keep_target_taxa</t>
+  </si>
+  <si>
+    <t>sessionName</t>
+  </si>
+  <si>
+    <t>"" or a single word</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>session name</t>
+  </si>
+  <si>
+    <t>only read, if you're not using the dadasnake wrapper</t>
+  </si>
+  <si>
+    <t>normalMem</t>
+  </si>
+  <si>
+    <t>bigMem</t>
+  </si>
+  <si>
+    <t>bigCores</t>
+  </si>
+  <si>
+    <t>sessionKind</t>
+  </si>
+  <si>
+    <t>settingsLocked</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>"" or a number and a letter</t>
+  </si>
+  <si>
+    <t>"" or a number</t>
+  </si>
+  <si>
+    <t>a string</t>
+  </si>
+  <si>
+    <t>size of the RAM of one core of your normal copute nodes (e.g. 8G)</t>
+  </si>
+  <si>
+    <t>size of the RAM of one core of your high memory copute nodes (e.g. 30G)</t>
+  </si>
+  <si>
+    <t>maximum number of high memory copute nodes to use (e.g. 4)</t>
+  </si>
+  <si>
+    <t>automatically set by dadasnake wrapper</t>
+  </si>
+  <si>
+    <t>may be fixed during installation, only necessary for cluster submission</t>
+  </si>
+  <si>
+    <t>0 means all nodes have the same (normal) size may be fixed during installation, only necessary for cluster submission</t>
+  </si>
+  <si>
+    <t>keep ""</t>
+  </si>
+  <si>
+    <t>it doesn't matter what you do</t>
+  </si>
+  <si>
+    <t>big_data</t>
+  </si>
+  <si>
+    <t>dada, taxonomy, post</t>
+  </si>
+  <si>
+    <t>whether to use big data settings</t>
+  </si>
+  <si>
+    <t>set to true, if you have extra high memory nodes and more than 1000 samples</t>
+  </si>
+  <si>
+    <t>whether the DADA2 implementation of the bayesian classifier should be used for taxonomic annotation</t>
+  </si>
+  <si>
+    <t>whether the DADA2 implementation of the bayesian classifier should be run before or after ITSx</t>
+  </si>
+  <si>
+    <t>see the DADA2 implementation of the bayesian classifier documentation for details</t>
+  </si>
+  <si>
+    <t>seed for the DADA2 implementation of the bayesian classifier</t>
+  </si>
+  <si>
+    <t>whether you want to run a species-level annotation after the DADA2 implementation of the bayesian classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    refFasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    minBoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tryRC</t>
+  </si>
+  <si>
+    <t>if your reads are in the direction of the database (false), or reverse complement or you don't know (true)</t>
+  </si>
+  <si>
+    <t>true takes longer than false</t>
+  </si>
+  <si>
+    <t>the DADA2 implementation may work less well than the mothur classifier, and it may be slower; you can run either the DADA classifier or mothur (not both)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>"SILVA_138_SSURef_NR99_prok.515F.806R"</t>
+  </si>
+  <si>
+    <t>"../DBs/DADA2"</t>
+  </si>
+  <si>
+    <t>"silva_nr99_v138_train_set.fa.gz"</t>
+  </si>
+  <si>
+    <t>"../DBs/DADA2/silva_species_assignment_v138.fa.gz"</t>
+  </si>
+  <si>
+    <t>"SILVA_SSU_r138_2019.RData"</t>
+  </si>
+  <si>
+    <t>"../DBs/blast"</t>
+  </si>
+  <si>
+    <t>"../DBs/mothur"</t>
+  </si>
+  <si>
+    <t>"../DBs/functions/funguild_db.json"</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1170,6 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1484,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B259DD-FAC6-FB4A-84F8-11B4141970E7}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1504,28 +1619,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1551,191 +1666,152 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
+        <v>356</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>358</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>367</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>358</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="H4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="G5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>368</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>358</v>
+      </c>
+      <c r="G6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
+        <v>364</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>369</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>2</v>
+        <v>358</v>
+      </c>
+      <c r="G7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
+        <v>365</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>2</v>
+        <v>358</v>
+      </c>
+      <c r="G8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
+        <v>378</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>379</v>
+      </c>
+      <c r="G9" t="s">
+        <v>380</v>
+      </c>
+      <c r="H9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1744,24 +1820,24 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1770,485 +1846,534 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>50</v>
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>67</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>72</v>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
+      <c r="B21" s="5"/>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>80</v>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24">
-        <v>0.2</v>
+      <c r="B24" s="4"/>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>100</v>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" t="s">
-        <v>103</v>
+      <c r="B29" t="s">
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>0.2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>112</v>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33">
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34">
+      <c r="G34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="H34" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
         <v>101</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2258,7 +2383,7 @@
         <v>103</v>
       </c>
       <c r="D36">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>78</v>
@@ -2267,10 +2392,10 @@
         <v>101</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2280,7 +2405,7 @@
         <v>106</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>78</v>
@@ -2289,679 +2414,675 @@
         <v>101</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>127</v>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F38" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>128</v>
+      <c r="G38" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>130</v>
+      <c r="B39" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F39" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>131</v>
+      <c r="H39" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
         <v>106</v>
       </c>
-      <c r="D40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>134</v>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F41" t="s">
         <v>101</v>
       </c>
+      <c r="G41" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>136</v>
+      <c r="B42" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F42" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
         <v>106</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>141</v>
-      </c>
       <c r="D44">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>101</v>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F45" t="s">
         <v>101</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46">
-        <v>16</v>
+      <c r="B46" s="4"/>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
         <v>101</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" t="s">
-        <v>149</v>
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F47" t="s">
         <v>101</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>156</v>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F48" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H48" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="1">
-        <v>9.9999999999999993E-41</v>
+      <c r="B49" s="4"/>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
         <v>101</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
+      <c r="B50" s="4"/>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
         <v>101</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1E-4</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
         <v>101</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" s="1">
-        <v>9.9999999999999993E-41</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>101</v>
       </c>
       <c r="F52" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s">
         <v>101</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="F54" t="s">
         <v>101</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F55" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" t="s">
-        <v>62</v>
+        <v>159</v>
+      </c>
+      <c r="D56" s="1">
+        <v>9.9999999999999993E-41</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F56" t="s">
         <v>101</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="F57" t="s">
         <v>101</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58">
-        <v>0.42</v>
+        <v>168</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1E-4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
+        <v>171</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9.9999999999999993E-41</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="F59" t="s">
         <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60">
-        <v>-5</v>
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>155</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
         <v>101</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61">
-        <v>-8</v>
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>155</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
         <v>101</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>197</v>
+    <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="F62" t="s">
         <v>101</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="H62" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63">
-        <v>12</v>
+        <v>182</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
         <v>101</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="D64" t="s">
+        <v>62</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
         <v>101</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" t="s">
-        <v>155</v>
+        <v>187</v>
+      </c>
+      <c r="D65">
+        <v>0.42</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="F65" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" t="s">
-        <v>62</v>
+        <v>190</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="F66" t="s">
         <v>101</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>210</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67">
+        <v>-5</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F67" t="s">
         <v>101</v>
       </c>
+      <c r="G67" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="H67" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" t="s">
-        <v>62</v>
+        <v>195</v>
+      </c>
+      <c r="D68">
+        <v>-8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="F68" t="s">
         <v>101</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" t="s">
-        <v>215</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="F69" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="H69" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F71" t="s">
         <v>101</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D72" t="s">
         <v>155</v>
@@ -2973,246 +3094,238 @@
         <v>101</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" t="s">
-        <v>227</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>62</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" t="s">
+        <v>101</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F73" t="s">
-        <v>101</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" t="s">
-        <v>229</v>
-      </c>
-      <c r="D74">
-        <v>16</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F74" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F75" t="s">
-        <v>231</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F76" t="s">
-        <v>231</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" t="s">
-        <v>235</v>
-      </c>
-      <c r="D77" t="s">
-        <v>155</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="B78" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" t="s">
         <v>155</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+      <c r="B81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" t="s">
-        <v>241</v>
-      </c>
-      <c r="D79" t="s">
-        <v>242</v>
-      </c>
-      <c r="F79" t="s">
-        <v>231</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" t="s">
-        <v>246</v>
-      </c>
-      <c r="F80" t="s">
-        <v>231</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" t="s">
-        <v>248</v>
-      </c>
-      <c r="D81">
-        <v>60</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F81" t="s">
-        <v>231</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" t="s">
-        <v>252</v>
-      </c>
-      <c r="D82" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="F82" t="s">
         <v>231</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="H82" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" t="s">
-        <v>257</v>
-      </c>
-      <c r="D83">
-        <v>100</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>78</v>
+      <c r="B83" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F83" t="s">
         <v>231</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="H83" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" t="s">
-        <v>259</v>
-      </c>
-      <c r="D84">
-        <v>100</v>
+        <v>235</v>
+      </c>
+      <c r="D84" t="s">
+        <v>155</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F84" t="s">
         <v>231</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>144</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="D85" t="s">
         <v>155</v>
@@ -3224,70 +3337,74 @@
         <v>231</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D86" t="s">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="F86" t="s">
         <v>231</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
-      <c r="B87" s="4" t="s">
-        <v>267</v>
+      <c r="B87" s="4"/>
+      <c r="C87" t="s">
+        <v>387</v>
+      </c>
+      <c r="D87" t="s">
+        <v>396</v>
       </c>
       <c r="F87" t="s">
         <v>231</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="G87" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" t="s">
-        <v>235</v>
-      </c>
-      <c r="D88" t="s">
-        <v>62</v>
+        <v>388</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="F88" t="s">
         <v>231</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>389</v>
       </c>
       <c r="D89" t="s">
         <v>155</v>
@@ -3299,84 +3416,95 @@
         <v>231</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" t="s">
-        <v>241</v>
-      </c>
-      <c r="D90" t="s">
-        <v>273</v>
+        <v>258</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F90" t="s">
         <v>231</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>243</v>
+        <v>385</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D91" t="s">
-        <v>274</v>
+        <v>155</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F91" t="s">
         <v>231</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>275</v>
+        <v>386</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92">
-        <v>60</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
+      </c>
+      <c r="D92" t="s">
+        <v>397</v>
       </c>
       <c r="F92" t="s">
         <v>231</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>279</v>
+        <v>264</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="F93" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="H93" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
-      <c r="B94" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" t="s">
         <v>235</v>
       </c>
-      <c r="C94" t="b">
-        <v>0</v>
+      <c r="D94" t="s">
+        <v>155</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>63</v>
@@ -3385,495 +3513,821 @@
         <v>231</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
-      <c r="B95" t="s">
-        <v>241</v>
-      </c>
+      <c r="B95" s="4"/>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>238</v>
+      </c>
+      <c r="D95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F95" t="s">
         <v>231</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>282</v>
+        <v>239</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" t="s">
-        <v>245</v>
-      </c>
+      <c r="B96" s="4"/>
       <c r="C96" t="s">
-        <v>283</v>
+        <v>241</v>
+      </c>
+      <c r="D96" t="s">
+        <v>242</v>
       </c>
       <c r="F96" t="s">
         <v>231</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>284</v>
+        <v>243</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
-      <c r="B97" t="s">
-        <v>285</v>
-      </c>
-      <c r="C97">
-        <v>0.01</v>
+      <c r="B97" s="4"/>
+      <c r="C97" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" t="s">
+        <v>398</v>
       </c>
       <c r="F97" t="s">
         <v>231</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
-      <c r="B98" t="s">
-        <v>287</v>
-      </c>
+      <c r="B98" s="4"/>
       <c r="C98" t="s">
-        <v>288</v>
+        <v>247</v>
+      </c>
+      <c r="D98">
+        <v>60</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="F98" t="s">
         <v>231</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
-      <c r="B99" t="s">
-        <v>292</v>
-      </c>
-      <c r="C99" t="b">
-        <v>0</v>
+      <c r="B99" s="4"/>
+      <c r="C99" t="s">
+        <v>251</v>
+      </c>
+      <c r="D99" t="s">
+        <v>252</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="F99" t="s">
         <v>231</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>295</v>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F100" t="s">
         <v>231</v>
       </c>
-      <c r="H100" s="2" t="s">
-        <v>296</v>
+      <c r="G100" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
-      <c r="B101" t="s">
-        <v>297</v>
-      </c>
-      <c r="D101" t="s">
-        <v>155</v>
+      <c r="B101" s="4"/>
+      <c r="C101" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F101" t="s">
         <v>231</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
-      <c r="B102" t="s">
-        <v>300</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" s="3">
-        <v>43922</v>
+      <c r="B102" s="4"/>
+      <c r="C102" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F102" t="s">
         <v>231</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" t="s">
-        <v>303</v>
+      <c r="B103" s="4"/>
+      <c r="C103" t="s">
+        <v>263</v>
       </c>
       <c r="D103" t="s">
-        <v>304</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>305</v>
+        <v>397</v>
       </c>
       <c r="F103" t="s">
         <v>231</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
-      <c r="B104" t="s">
-        <v>307</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>86</v>
+      <c r="B104" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="F104" t="s">
         <v>231</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>309</v>
+      <c r="H104" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" t="s">
+        <v>235</v>
+      </c>
+      <c r="D105" t="s">
+        <v>62</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F105" t="s">
-        <v>310</v>
+        <v>231</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
-      <c r="B106" t="s">
-        <v>312</v>
-      </c>
-      <c r="D106" t="b">
-        <v>1</v>
+      <c r="B106" s="4"/>
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" t="s">
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F106" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
-      <c r="B107" t="s">
-        <v>316</v>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>63</v>
+      <c r="B107" s="4"/>
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" t="s">
+        <v>400</v>
       </c>
       <c r="F107" t="s">
-        <v>317</v>
+        <v>231</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>320</v>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" t="s">
+        <v>394</v>
       </c>
       <c r="F108" t="s">
-        <v>321</v>
+        <v>231</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
-      <c r="B109" t="s">
-        <v>323</v>
-      </c>
-      <c r="D109" t="b">
-        <v>1</v>
+      <c r="B109" s="4"/>
+      <c r="C109" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109">
+        <v>60</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="F109" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" t="s">
-        <v>363</v>
-      </c>
-      <c r="D110" t="s">
-        <v>325</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>326</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="F110" t="s">
-        <v>321</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>328</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" t="s">
-        <v>329</v>
-      </c>
-      <c r="D111">
+        <v>235</v>
+      </c>
+      <c r="C111" t="b">
         <v>0</v>
       </c>
+      <c r="E111" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F111" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" t="s">
-        <v>332</v>
-      </c>
-      <c r="D112" t="s">
-        <v>333</v>
+        <v>241</v>
+      </c>
+      <c r="C112" t="s">
+        <v>399</v>
       </c>
       <c r="F112" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>321</v>
+      <c r="A113" s="4"/>
+      <c r="B113" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" t="s">
+        <v>278</v>
       </c>
       <c r="F113" t="s">
-        <v>321</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>335</v>
+        <v>231</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
-      <c r="B114" s="4" t="s">
-        <v>336</v>
+      <c r="B114" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114">
+        <v>0.01</v>
       </c>
       <c r="F114" t="s">
-        <v>321</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" t="s">
+        <v>282</v>
+      </c>
       <c r="C115" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" t="b">
+        <v>283</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F115" t="s">
+        <v>231</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" t="s">
+        <v>287</v>
+      </c>
+      <c r="C116" t="b">
         <v>0</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F115" t="s">
-        <v>321</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" t="s">
-        <v>339</v>
-      </c>
-      <c r="D116" t="s">
-        <v>340</v>
-      </c>
       <c r="F116" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" t="s">
-        <v>342</v>
-      </c>
-      <c r="D117" t="s">
-        <v>343</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>344</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="F117" t="s">
-        <v>321</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
-      <c r="B118" s="4" t="s">
-        <v>347</v>
+      <c r="B118" t="s">
+        <v>292</v>
+      </c>
+      <c r="D118" t="s">
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F118" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" t="s">
-        <v>235</v>
-      </c>
-      <c r="D119" t="b">
+      <c r="B119" t="s">
+        <v>295</v>
+      </c>
+      <c r="D119">
         <v>1</v>
       </c>
+      <c r="E119" s="3">
+        <v>43922</v>
+      </c>
       <c r="F119" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>348</v>
+        <v>296</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" t="s">
-        <v>349</v>
+      <c r="B120" t="s">
+        <v>298</v>
       </c>
       <c r="D120" t="s">
-        <v>350</v>
+        <v>299</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="F120" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" t="s">
-        <v>352</v>
-      </c>
-      <c r="D121" t="b">
+        <v>302</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F121" t="s">
+        <v>231</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F122" t="s">
+        <v>305</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
+      <c r="B123" t="s">
+        <v>307</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F123" t="s">
+        <v>308</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+      <c r="B124" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" t="s">
+        <v>312</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F125" t="s">
+        <v>316</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A126" s="4"/>
+      <c r="B126" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" t="s">
+        <v>316</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
+      <c r="B127" t="s">
+        <v>355</v>
+      </c>
+      <c r="D127" t="s">
+        <v>320</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F127" t="s">
+        <v>316</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
+      <c r="B128" t="s">
+        <v>324</v>
+      </c>
+      <c r="D128">
         <v>1</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F128" t="s">
+        <v>316</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="4"/>
+      <c r="B129" t="s">
+        <v>327</v>
+      </c>
+      <c r="D129">
+        <v>10000</v>
+      </c>
+      <c r="F129" t="s">
+        <v>316</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F130" t="s">
+        <v>316</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F131" t="s">
+        <v>316</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F121" t="s">
-        <v>321</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>353</v>
+      <c r="F132" t="s">
+        <v>316</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" t="s">
+        <v>333</v>
+      </c>
+      <c r="D133" t="s">
+        <v>401</v>
+      </c>
+      <c r="F133" t="s">
+        <v>316</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" t="s">
+        <v>336</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F134" t="s">
+        <v>316</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F135" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" t="s">
+        <v>235</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F136" t="s">
+        <v>316</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" t="s">
+        <v>342</v>
+      </c>
+      <c r="D137" t="s">
+        <v>283</v>
+      </c>
+      <c r="F137" t="s">
+        <v>316</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="4"/>
+      <c r="B138" t="s">
+        <v>344</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" t="s">
+        <v>316</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H121" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
-  <mergeCells count="23">
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A43"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B34"/>
+  <autoFilter ref="A1:H138" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
+  <mergeCells count="24">
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A82:A109"/>
+    <mergeCell ref="B93:B103"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A110:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A138"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A50"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="A46:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B76:B86"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E95A545-5648-C04B-8A04-C640CD1FCE1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C49CB1C-8870-C349-A469-2EB3FCE9F04B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16980" windowHeight="17040" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="22800" windowHeight="16900" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,15 +498,9 @@
     <t xml:space="preserve"> false</t>
   </si>
   <si>
-    <t>true, false or "pseudo"</t>
-  </si>
-  <si>
     <t>Should DADA2 be run per sample (default) or in a pool, or should pseudo-pooling be done?</t>
   </si>
   <si>
-    <t xml:space="preserve"> default is good for Illumina and much more efficient for large data sets; set to true for 454, pacbio and nanopore; set to pseudo for non-huge datasets, if you're interested in rare ASVs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  omega_A</t>
   </si>
   <si>
@@ -1234,6 +1228,12 @@
   </si>
   <si>
     <t>"../DBs/functions/funguild_db.json"</t>
+  </si>
+  <si>
+    <t>true, false, "pseudo", or "within_run"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> default is good for Illumina and much more efficient for large data sets; set to true for 454, pacbio and nanopore; set to pseudo for non-huge datasets, if you're interested in rare ASVs. You can also run pooling run-wise, which will increase sensitivity towards rare ASVs - however, take care with this setting, because run-specific biases can be strengthened and it's not advisable, if runs have vastly different sizes.</t>
   </si>
 </sst>
 </file>
@@ -1278,13 +1278,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B259DD-FAC6-FB4A-84F8-11B4141970E7}">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,28 +1619,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" t="s">
         <v>346</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>347</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1666,147 +1666,147 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" t="s">
         <v>356</v>
       </c>
-      <c r="D3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>366</v>
+        <v>376</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" t="s">
         <v>379</v>
-      </c>
-      <c r="G9" t="s">
-        <v>380</v>
-      </c>
-      <c r="H9" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
@@ -2041,8 +2041,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
@@ -2065,8 +2065,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>41</v>
       </c>
@@ -2084,8 +2084,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
@@ -2130,8 +2130,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" t="s">
         <v>52</v>
       </c>
@@ -2149,8 +2149,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" t="s">
         <v>57</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="s">
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>74</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>77</v>
       </c>
@@ -2258,7 +2258,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>80</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>85</v>
       </c>
@@ -2300,7 +2300,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>89</v>
       </c>
@@ -2318,7 +2318,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B34" t="s">
@@ -2365,8 +2365,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F35" t="s">
@@ -2377,8 +2377,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -2399,8 +2399,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" t="s">
         <v>106</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" t="s">
         <v>109</v>
       </c>
@@ -2439,8 +2439,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
         <v>112</v>
       </c>
       <c r="F39" t="s">
@@ -2451,8 +2451,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" t="s">
         <v>114</v>
       </c>
@@ -2473,8 +2473,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="C41" t="s">
         <v>106</v>
       </c>
@@ -2495,8 +2495,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F42" t="s">
@@ -2507,8 +2507,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
       <c r="C43" t="s">
         <v>103</v>
       </c>
@@ -2529,8 +2529,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
       <c r="C44" t="s">
         <v>106</v>
       </c>
@@ -2551,8 +2551,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
         <v>127</v>
       </c>
       <c r="F45" t="s">
@@ -2563,8 +2563,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" t="s">
         <v>103</v>
       </c>
@@ -2582,8 +2582,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
       <c r="C47" t="s">
         <v>106</v>
       </c>
@@ -2604,8 +2604,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
         <v>134</v>
       </c>
       <c r="F48" t="s">
@@ -2616,8 +2616,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" t="s">
         <v>103</v>
       </c>
@@ -2638,8 +2638,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
       <c r="C50" t="s">
         <v>106</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
       <c r="B53" t="s">
         <v>146</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
+      <c r="A54" s="5"/>
       <c r="B54" t="s">
         <v>149</v>
       </c>
@@ -2732,8 +2732,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
+    <row r="55" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
       <c r="B55" t="s">
         <v>154</v>
       </c>
@@ -2741,106 +2741,106 @@
         <v>155</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F55" t="s">
-        <v>101</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
         <v>157</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" t="s">
-        <v>159</v>
       </c>
       <c r="D56" s="1">
         <v>9.9999999999999993E-41</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F56" t="s">
-        <v>101</v>
-      </c>
-      <c r="G56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" t="s">
         <v>161</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="D57" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" t="s">
+      <c r="E57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F57" t="s">
-        <v>101</v>
-      </c>
-      <c r="G57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" t="s">
         <v>166</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" t="s">
-        <v>168</v>
       </c>
       <c r="D58" s="1">
         <v>1E-4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" t="s">
         <v>169</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" t="s">
-        <v>171</v>
       </c>
       <c r="D59" s="1">
         <v>9.9999999999999993E-41</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F59" t="s">
         <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5"/>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>155</v>
@@ -2852,16 +2852,16 @@
         <v>101</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
+      <c r="A61" s="5"/>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
         <v>155</v>
@@ -2873,37 +2873,37 @@
         <v>101</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
         <v>176</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" t="s">
+      <c r="E62" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F62" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" t="s">
         <v>180</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" t="s">
-        <v>182</v>
       </c>
       <c r="D63" t="s">
         <v>62</v>
@@ -2915,16 +2915,16 @@
         <v>101</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5"/>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
         <v>62</v>
@@ -2936,111 +2936,111 @@
         <v>101</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" t="s">
         <v>185</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" t="s">
-        <v>187</v>
       </c>
       <c r="D65">
         <v>0.42</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" t="s">
         <v>188</v>
-      </c>
-      <c r="F65" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" t="s">
-        <v>190</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" t="s">
         <v>191</v>
-      </c>
-      <c r="F66" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" t="s">
-        <v>193</v>
       </c>
       <c r="D67">
         <v>-5</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F67" t="s">
         <v>101</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
+      <c r="A68" s="5"/>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68">
         <v>-8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F68" t="s">
         <v>101</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+    </row>
+    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" t="s">
         <v>197</v>
-      </c>
-      <c r="F69" t="s">
-        <v>101</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" t="s">
-        <v>199</v>
       </c>
       <c r="D70">
         <v>12</v>
@@ -3052,37 +3052,37 @@
         <v>101</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
+      <c r="A71" s="5"/>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F71" t="s">
         <v>101</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
+      <c r="A72" s="5"/>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
         <v>155</v>
@@ -3094,16 +3094,16 @@
         <v>101</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" t="s">
         <v>205</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" t="s">
-        <v>207</v>
       </c>
       <c r="D73" t="s">
         <v>62</v>
@@ -3115,27 +3115,27 @@
         <v>101</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="F74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" t="s">
         <v>210</v>
-      </c>
-      <c r="F74" t="s">
-        <v>101</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" t="s">
-        <v>212</v>
       </c>
       <c r="D75" t="s">
         <v>62</v>
@@ -3147,76 +3147,76 @@
         <v>101</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" t="s">
+      <c r="E76" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="2" t="s">
+    </row>
+    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" t="s">
         <v>217</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" t="s">
-        <v>219</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F77" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" t="s">
         <v>221</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" t="s">
-        <v>223</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F78" t="s">
         <v>101</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
+      <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
         <v>155</v>
@@ -3228,82 +3228,82 @@
         <v>101</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
+      <c r="A80" s="5"/>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
         <v>101</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
+      <c r="A81" s="5"/>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81">
         <v>16</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F81" t="s">
         <v>101</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" t="s">
+        <v>229</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F82" t="s">
-        <v>231</v>
-      </c>
-      <c r="H82" s="2" t="s">
+    </row>
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83" t="s">
+        <v>229</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" t="s">
-        <v>231</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
     <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" t="s">
         <v>155</v>
@@ -3312,20 +3312,20 @@
         <v>63</v>
       </c>
       <c r="F84" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
         <v>155</v>
@@ -3334,77 +3334,77 @@
         <v>63</v>
       </c>
       <c r="F85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
       <c r="C86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" t="s">
+        <v>393</v>
+      </c>
+      <c r="F86" t="s">
+        <v>229</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D86" t="s">
-        <v>395</v>
-      </c>
-      <c r="F86" t="s">
-        <v>231</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="H86" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" t="s">
+        <v>385</v>
+      </c>
+      <c r="D87" t="s">
+        <v>394</v>
+      </c>
+      <c r="F87" t="s">
+        <v>229</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" t="s">
-        <v>387</v>
-      </c>
-      <c r="D87" t="s">
-        <v>396</v>
-      </c>
-      <c r="F87" t="s">
-        <v>231</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
     <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
       <c r="C88" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D88">
         <v>50</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F88" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
       <c r="C89" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D89" t="s">
         <v>155</v>
@@ -3413,20 +3413,20 @@
         <v>63</v>
       </c>
       <c r="F89" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90">
         <v>100</v>
@@ -3435,20 +3435,20 @@
         <v>78</v>
       </c>
       <c r="F90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" t="s">
         <v>155</v>
@@ -3457,51 +3457,51 @@
         <v>63</v>
       </c>
       <c r="F91" t="s">
+        <v>229</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" t="s">
+        <v>395</v>
+      </c>
+      <c r="F92" t="s">
+        <v>229</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" t="s">
-        <v>263</v>
-      </c>
-      <c r="D92" t="s">
-        <v>397</v>
-      </c>
-      <c r="F92" t="s">
-        <v>231</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4" t="s">
+      <c r="F93" t="s">
+        <v>229</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" t="s">
         <v>233</v>
-      </c>
-      <c r="F93" t="s">
-        <v>231</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" t="s">
-        <v>235</v>
       </c>
       <c r="D94" t="s">
         <v>155</v>
@@ -3510,20 +3510,20 @@
         <v>63</v>
       </c>
       <c r="F94" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G94" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" t="s">
         <v>236</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" t="s">
-        <v>238</v>
       </c>
       <c r="D95" t="s">
         <v>155</v>
@@ -3532,99 +3532,99 @@
         <v>63</v>
       </c>
       <c r="F95" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" t="s">
         <v>239</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="D96" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" t="s">
+      <c r="F96" t="s">
+        <v>229</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D96" t="s">
+      <c r="H96" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F96" t="s">
-        <v>231</v>
-      </c>
-      <c r="G96" s="2" t="s">
+    </row>
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" t="s">
         <v>243</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="D97" t="s">
+        <v>396</v>
+      </c>
+      <c r="F97" t="s">
+        <v>229</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" t="s">
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" t="s">
         <v>245</v>
-      </c>
-      <c r="D97" t="s">
-        <v>398</v>
-      </c>
-      <c r="F97" t="s">
-        <v>231</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" t="s">
-        <v>247</v>
       </c>
       <c r="D98">
         <v>60</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F98" t="s">
+        <v>229</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F98" t="s">
-        <v>231</v>
-      </c>
-      <c r="G98" s="2" t="s">
+    </row>
+    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="D99" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" t="s">
+      <c r="E99" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
+        <v>229</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F99" t="s">
-        <v>231</v>
-      </c>
-      <c r="G99" s="2" t="s">
+    </row>
+    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" t="s">
         <v>254</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" t="s">
-        <v>256</v>
       </c>
       <c r="D100">
         <v>100</v>
@@ -3633,17 +3633,17 @@
         <v>78</v>
       </c>
       <c r="F100" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
       <c r="C101" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D101">
         <v>100</v>
@@ -3652,20 +3652,20 @@
         <v>78</v>
       </c>
       <c r="F101" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D102" t="s">
         <v>155</v>
@@ -3674,51 +3674,51 @@
         <v>63</v>
       </c>
       <c r="F102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G102" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" t="s">
         <v>261</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="D103" t="s">
+        <v>395</v>
+      </c>
+      <c r="F103" t="s">
+        <v>229</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" t="s">
+      <c r="H103" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D103" t="s">
-        <v>397</v>
-      </c>
-      <c r="F103" t="s">
-        <v>231</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="F104" t="s">
+        <v>229</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F104" t="s">
-        <v>231</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="105" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D105" t="s">
         <v>62</v>
@@ -3727,20 +3727,20 @@
         <v>63</v>
       </c>
       <c r="F105" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D106" t="s">
         <v>155</v>
@@ -3749,84 +3749,84 @@
         <v>63</v>
       </c>
       <c r="F106" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
+        <v>398</v>
+      </c>
+      <c r="F107" t="s">
+        <v>229</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" t="s">
+        <v>243</v>
+      </c>
+      <c r="D108" t="s">
+        <v>392</v>
+      </c>
+      <c r="F108" t="s">
+        <v>229</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" t="s">
-        <v>400</v>
-      </c>
-      <c r="F107" t="s">
-        <v>231</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" t="s">
-        <v>245</v>
-      </c>
-      <c r="D108" t="s">
-        <v>394</v>
-      </c>
-      <c r="F108" t="s">
-        <v>231</v>
-      </c>
-      <c r="G108" s="2" t="s">
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" t="s">
         <v>271</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" t="s">
-        <v>273</v>
       </c>
       <c r="D109">
         <v>60</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F109" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>275</v>
+      <c r="A110" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="F110" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
+      <c r="A111" s="5"/>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -3835,111 +3835,111 @@
         <v>63</v>
       </c>
       <c r="F111" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G111" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" t="s">
+        <v>397</v>
+      </c>
+      <c r="F112" t="s">
+        <v>229</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" t="s">
-        <v>241</v>
-      </c>
-      <c r="C112" t="s">
-        <v>399</v>
-      </c>
-      <c r="F112" t="s">
-        <v>231</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="F113" t="s">
+        <v>229</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
-      <c r="B113" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" t="s">
+    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+      <c r="B114" t="s">
         <v>278</v>
-      </c>
-      <c r="F113" t="s">
-        <v>231</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
-      <c r="B114" t="s">
-        <v>280</v>
       </c>
       <c r="C114">
         <v>0.01</v>
       </c>
       <c r="F114" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G114" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" t="s">
+        <v>280</v>
+      </c>
+      <c r="C115" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
-      <c r="B115" t="s">
+      <c r="E115" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C115" t="s">
+      <c r="F115" t="s">
+        <v>229</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F115" t="s">
-        <v>231</v>
-      </c>
-      <c r="G115" s="2" t="s">
+    </row>
+    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" t="s">
         <v>285</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
-      <c r="B116" t="s">
-        <v>287</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="F117" t="s">
+        <v>229</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" t="s">
         <v>290</v>
-      </c>
-      <c r="F117" t="s">
-        <v>231</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
-      <c r="B118" t="s">
-        <v>292</v>
       </c>
       <c r="D118" t="s">
         <v>155</v>
@@ -3948,19 +3948,19 @@
         <v>63</v>
       </c>
       <c r="F118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G118" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+      <c r="B119" t="s">
         <v>293</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" t="s">
-        <v>295</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3969,37 +3969,37 @@
         <v>43922</v>
       </c>
       <c r="F119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+      <c r="B120" t="s">
         <v>296</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="D120" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
-      <c r="B120" t="s">
+      <c r="E120" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
+        <v>229</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E120" s="2" t="s">
+    </row>
+    <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="5"/>
+      <c r="B121" t="s">
         <v>300</v>
-      </c>
-      <c r="F120" t="s">
-        <v>231</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="B121" t="s">
-        <v>302</v>
       </c>
       <c r="D121" s="1">
         <v>1.0000000000000001E-5</v>
@@ -4008,302 +4008,312 @@
         <v>86</v>
       </c>
       <c r="F121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G121" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F122" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="H122" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F122" t="s">
+    </row>
+    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+      <c r="B123" t="s">
         <v>305</v>
       </c>
-      <c r="H122" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="B123" t="s">
-        <v>307</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>393</v>
+      <c r="D123" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F123" t="s">
+        <v>306</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G123" s="2" t="s">
+    </row>
+    <row r="124" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" t="s">
         <v>309</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
-      <c r="B124" t="s">
-        <v>311</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>366</v>
+      <c r="D124" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F124" t="s">
+        <v>310</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H124" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G124" s="2" t="s">
+    </row>
+    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="F125" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="H125" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F125" t="s">
+    </row>
+    <row r="126" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" t="s">
         <v>316</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
-      <c r="B126" t="s">
-        <v>318</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>393</v>
+      <c r="D126" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F126" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G126" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" t="s">
+        <v>353</v>
+      </c>
+      <c r="D127" t="s">
+        <v>318</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
-      <c r="B127" t="s">
-        <v>355</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>314</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F127" t="s">
-        <v>316</v>
-      </c>
-      <c r="G127" s="2" t="s">
+    </row>
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" t="s">
         <v>322</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" t="s">
-        <v>324</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G128" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" t="s">
         <v>325</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
-      <c r="B129" t="s">
-        <v>327</v>
       </c>
       <c r="D129">
         <v>10000</v>
       </c>
       <c r="F129" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G129" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F130" t="s">
+        <v>314</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H129" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F130" t="s">
-        <v>316</v>
-      </c>
-      <c r="H130" s="2" t="s">
+      <c r="F131" t="s">
+        <v>314</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F131" t="s">
-        <v>316</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
     <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
       <c r="C132" t="s">
-        <v>235</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>366</v>
+        <v>233</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F132" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G132" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" t="s">
+        <v>331</v>
+      </c>
+      <c r="D133" t="s">
+        <v>399</v>
+      </c>
+      <c r="F133" t="s">
+        <v>314</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" t="s">
+      <c r="H133" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" t="s">
         <v>333</v>
       </c>
-      <c r="D133" t="s">
-        <v>401</v>
-      </c>
-      <c r="F133" t="s">
-        <v>316</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="D134" t="s">
         <v>334</v>
       </c>
-      <c r="H133" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" t="s">
+      <c r="E134" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
+        <v>314</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F134" t="s">
-        <v>316</v>
-      </c>
-      <c r="G134" s="2" t="s">
+    </row>
+    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F135" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
       <c r="C136" t="s">
-        <v>235</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>393</v>
+        <v>233</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="F136" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G136" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" t="s">
+        <v>340</v>
+      </c>
+      <c r="D137" t="s">
+        <v>281</v>
+      </c>
+      <c r="F137" t="s">
+        <v>314</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" t="s">
+      <c r="H137" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="B138" t="s">
         <v>342</v>
       </c>
-      <c r="D137" t="s">
-        <v>283</v>
-      </c>
-      <c r="F137" t="s">
-        <v>316</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="4"/>
-      <c r="B138" t="s">
-        <v>344</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>393</v>
+      <c r="D138" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F138" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H138" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
   <mergeCells count="24">
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A50"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="B135:B137"/>
     <mergeCell ref="A53:A68"/>
@@ -4318,16 +4328,6 @@
     <mergeCell ref="A125:A129"/>
     <mergeCell ref="A130:A138"/>
     <mergeCell ref="B83:B92"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A50"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C49CB1C-8870-C349-A469-2EB3FCE9F04B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5B618-9919-AA4F-AAAA-CD4A0E936B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="22800" windowHeight="16900" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
+    <workbookView xWindow="32380" yWindow="800" windowWidth="31000" windowHeight="20240" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$149</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="416">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -1234,6 +1234,48 @@
   </si>
   <si>
     <t xml:space="preserve"> default is good for Illumina and much more efficient for large data sets; set to true for 454, pacbio and nanopore; set to pseudo for non-huge datasets, if you're interested in rare ASVs. You can also run pooling run-wise, which will increase sensitivity towards rare ASVs - however, take care with this setting, because run-specific biases can be strengthened and it's not advisable, if runs have vastly different sizes.</t>
+  </si>
+  <si>
+    <t>fwd reads are cut before the first position with this quality</t>
+  </si>
+  <si>
+    <t>rvs reads are cut before the first position with this quality</t>
+  </si>
+  <si>
+    <t>downsampling</t>
+  </si>
+  <si>
+    <t>set to true if you want to downsample before DADA2 ASV construction</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>number of reads to keep per sample</t>
+  </si>
+  <si>
+    <t>samples with less reads are discarded</t>
+  </si>
+  <si>
+    <t>true to keep only samples with that many reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   db</t>
+  </si>
+  <si>
+    <t>"../DBs/functions/FungalTraits_1.2_ver_16Dec_2020_V.1.2.tsv"</t>
+  </si>
+  <si>
+    <t>path to fungalTraits DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fungalTraits</t>
   </si>
 </sst>
 </file>
@@ -1599,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B259DD-FAC6-FB4A-84F8-11B4141970E7}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2376,7 +2418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" t="s">
@@ -2420,803 +2462,781 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D38">
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="F39" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="G39" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="6"/>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F42" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" t="s">
         <v>103</v>
       </c>
-      <c r="D43">
+      <c r="D45">
         <v>20</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44">
-        <v>20</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" t="s">
         <v>103</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" t="s">
         <v>103</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F49" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="F51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" t="s">
+    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" t="s">
         <v>106</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F50" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="F52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>141</v>
       </c>
-      <c r="D51">
+      <c r="D53">
         <v>100</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F51" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="F53" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53">
-        <v>16</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>151</v>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="F54" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" t="s">
-        <v>155</v>
+        <v>316</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>400</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
         <v>101</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="1">
-        <v>9.9999999999999993E-41</v>
+        <v>406</v>
+      </c>
+      <c r="D56">
+        <v>50000</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
         <v>101</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>160</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" t="s">
-        <v>162</v>
+        <v>408</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="F57" t="s">
         <v>101</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>164</v>
+        <v>411</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1E-4</v>
+        <v>407</v>
+      </c>
+      <c r="D58">
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="1">
-        <v>9.9999999999999993E-41</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>158</v>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>101</v>
       </c>
       <c r="F59" t="s">
         <v>101</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="H59" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s">
         <v>101</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="F61" t="s">
         <v>101</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>177</v>
+        <v>400</v>
       </c>
       <c r="F62" t="s">
         <v>101</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" t="s">
-        <v>62</v>
+        <v>157</v>
+      </c>
+      <c r="D63" s="1">
+        <v>9.9999999999999993E-41</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s">
         <v>101</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="F64" t="s">
         <v>101</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65">
-        <v>0.42</v>
+        <v>166</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1E-4</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="F65" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
+        <v>169</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9.9999999999999993E-41</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s">
         <v>101</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67">
-        <v>-5</v>
+        <v>171</v>
+      </c>
+      <c r="D67" t="s">
+        <v>155</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
         <v>101</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68">
-        <v>-8</v>
+        <v>173</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
         <v>101</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>195</v>
+    <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="F69" t="s">
         <v>101</v>
       </c>
+      <c r="G69" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H69" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70">
-        <v>12</v>
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>62</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="D71" t="s">
+        <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s">
         <v>101</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" t="s">
-        <v>155</v>
+        <v>185</v>
+      </c>
+      <c r="D72">
+        <v>0.42</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="F72" t="s">
         <v>101</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" t="s">
-        <v>62</v>
+        <v>188</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="F73" t="s">
         <v>101</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>208</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74">
+        <v>-5</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="F74" t="s">
         <v>101</v>
       </c>
+      <c r="G74" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="H74" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" t="s">
-        <v>210</v>
-      </c>
-      <c r="D75" t="s">
-        <v>62</v>
+        <v>193</v>
+      </c>
+      <c r="D75">
+        <v>-8</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="F75" t="s">
         <v>101</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" t="s">
-        <v>213</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F76" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="H76" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s">
         <v>101</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F78" t="s">
         <v>101</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
         <v>155</v>
@@ -3228,227 +3248,216 @@
         <v>101</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" t="s">
+        <v>101</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" t="s">
+        <v>213</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" t="s">
+        <v>101</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" t="s">
         <v>225</v>
       </c>
-      <c r="D80">
+      <c r="D87">
         <v>4</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="F87" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" t="s">
-        <v>227</v>
-      </c>
-      <c r="D81">
-        <v>16</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F81" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F82" t="s">
-        <v>229</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" t="s">
-        <v>229</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" t="s">
-        <v>155</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F84" t="s">
-        <v>229</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F85" t="s">
-        <v>229</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" t="s">
-        <v>393</v>
-      </c>
-      <c r="F86" t="s">
-        <v>229</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" t="s">
-        <v>385</v>
-      </c>
-      <c r="D87" t="s">
-        <v>394</v>
-      </c>
-      <c r="F87" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" t="s">
-        <v>386</v>
+      <c r="B88" t="s">
+        <v>227</v>
       </c>
       <c r="D88">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="F88" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" t="s">
-        <v>387</v>
-      </c>
-      <c r="D89" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F89" t="s">
         <v>229</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="H89" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" t="s">
-        <v>256</v>
-      </c>
-      <c r="D90">
-        <v>100</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>78</v>
+      <c r="B90" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F90" t="s">
         <v>229</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="H90" s="2" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D91" t="s">
         <v>155</v>
@@ -3460,212 +3469,215 @@
         <v>229</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>395</v>
+        <v>155</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F92" t="s">
         <v>229</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="5" t="s">
-        <v>231</v>
+      <c r="B93" s="5"/>
+      <c r="C93" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" t="s">
+        <v>393</v>
       </c>
       <c r="F93" t="s">
         <v>229</v>
       </c>
+      <c r="G93" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="H93" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" t="s">
-        <v>233</v>
+        <v>385</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>63</v>
+        <v>394</v>
       </c>
       <c r="F94" t="s">
         <v>229</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" t="s">
-        <v>236</v>
-      </c>
-      <c r="D95" t="s">
-        <v>155</v>
+        <v>386</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="F95" t="s">
         <v>229</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>387</v>
       </c>
       <c r="D96" t="s">
-        <v>240</v>
+        <v>155</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F96" t="s">
         <v>229</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>241</v>
+        <v>388</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" t="s">
-        <v>243</v>
-      </c>
-      <c r="D97" t="s">
-        <v>396</v>
+        <v>256</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F97" t="s">
         <v>229</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" t="s">
-        <v>245</v>
-      </c>
-      <c r="D98">
-        <v>60</v>
+        <v>258</v>
+      </c>
+      <c r="D98" t="s">
+        <v>155</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="F98" t="s">
         <v>229</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>247</v>
+        <v>384</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D99" t="s">
-        <v>250</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="F99" t="s">
         <v>229</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" t="s">
-        <v>254</v>
-      </c>
-      <c r="D100">
-        <v>100</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>78</v>
+      <c r="B100" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="F100" t="s">
         <v>229</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="H100" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101">
-        <v>100</v>
+        <v>233</v>
+      </c>
+      <c r="D101" t="s">
+        <v>155</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F101" t="s">
         <v>229</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D102" t="s">
         <v>155</v>
@@ -3677,272 +3689,301 @@
         <v>229</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D103" t="s">
-        <v>395</v>
+        <v>240</v>
       </c>
       <c r="F103" t="s">
         <v>229</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="B104" s="5" t="s">
-        <v>263</v>
+      <c r="B104" s="5"/>
+      <c r="C104" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" t="s">
+        <v>396</v>
       </c>
       <c r="F104" t="s">
         <v>229</v>
       </c>
-      <c r="H104" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="G104" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" t="s">
-        <v>62</v>
+        <v>245</v>
+      </c>
+      <c r="D105">
+        <v>60</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="F105" t="s">
         <v>229</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="F106" t="s">
         <v>229</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" t="s">
-        <v>239</v>
-      </c>
-      <c r="D107" t="s">
-        <v>398</v>
+        <v>254</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F107" t="s">
         <v>229</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" t="s">
-        <v>243</v>
-      </c>
-      <c r="D108" t="s">
-        <v>392</v>
+        <v>256</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F108" t="s">
         <v>229</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" t="s">
-        <v>271</v>
-      </c>
-      <c r="D109">
-        <v>60</v>
+        <v>258</v>
+      </c>
+      <c r="D109" t="s">
+        <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="F109" t="s">
         <v>229</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>273</v>
+        <v>259</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" t="s">
+        <v>261</v>
+      </c>
+      <c r="D110" t="s">
+        <v>395</v>
       </c>
       <c r="F110" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G110" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
-      <c r="B111" t="s">
-        <v>233</v>
-      </c>
-      <c r="C111" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>63</v>
+      <c r="B111" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="F111" t="s">
         <v>229</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="H111" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
-      <c r="B112" t="s">
-        <v>239</v>
-      </c>
+      <c r="B112" s="5"/>
       <c r="C112" t="s">
-        <v>397</v>
+        <v>233</v>
+      </c>
+      <c r="D112" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F112" t="s">
         <v>229</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
-      <c r="B113" t="s">
-        <v>243</v>
-      </c>
+      <c r="B113" s="5"/>
       <c r="C113" t="s">
-        <v>276</v>
+        <v>236</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F113" t="s">
         <v>229</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
-      <c r="B114" t="s">
-        <v>278</v>
-      </c>
-      <c r="C114">
-        <v>0.01</v>
+      <c r="B114" s="5"/>
+      <c r="C114" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" t="s">
+        <v>398</v>
       </c>
       <c r="F114" t="s">
         <v>229</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>279</v>
+        <v>241</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
-      <c r="B115" t="s">
-        <v>280</v>
-      </c>
+      <c r="B115" s="5"/>
       <c r="C115" t="s">
-        <v>281</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>282</v>
+        <v>243</v>
+      </c>
+      <c r="D115" t="s">
+        <v>392</v>
       </c>
       <c r="F115" t="s">
         <v>229</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
-      <c r="B116" t="s">
-        <v>285</v>
-      </c>
-      <c r="C116" t="b">
-        <v>0</v>
+      <c r="B116" s="5"/>
+      <c r="C116" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116">
+        <v>60</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F116" t="s">
         <v>229</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" t="s">
-        <v>290</v>
-      </c>
-      <c r="D118" t="s">
-        <v>155</v>
+        <v>233</v>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>63</v>
@@ -3951,383 +3992,565 @@
         <v>229</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" t="s">
-        <v>293</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119" s="3">
-        <v>43922</v>
+        <v>239</v>
+      </c>
+      <c r="C119" t="s">
+        <v>397</v>
       </c>
       <c r="F119" t="s">
         <v>229</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" t="s">
-        <v>296</v>
-      </c>
-      <c r="D120" t="s">
-        <v>297</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>298</v>
+        <v>243</v>
+      </c>
+      <c r="C120" t="s">
+        <v>276</v>
       </c>
       <c r="F120" t="s">
         <v>229</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" t="s">
-        <v>300</v>
-      </c>
-      <c r="D121" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>278</v>
+      </c>
+      <c r="C121">
+        <v>0.01</v>
       </c>
       <c r="F121" t="s">
         <v>229</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
-        <v>302</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="5"/>
+      <c r="B122" t="s">
+        <v>280</v>
+      </c>
+      <c r="C122" t="s">
+        <v>281</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="F122" t="s">
-        <v>303</v>
+        <v>229</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" t="s">
-        <v>305</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E123" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>229</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F124" t="s">
+        <v>229</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" t="s">
+        <v>290</v>
+      </c>
+      <c r="D125" t="s">
+        <v>155</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F123" t="s">
-        <v>306</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" t="s">
-        <v>309</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F124" t="s">
-        <v>310</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="F125" t="s">
-        <v>314</v>
+        <v>229</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" t="s">
-        <v>316</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>63</v>
+        <v>293</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>43922</v>
       </c>
       <c r="F126" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="D127" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="F127" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" t="s">
-        <v>322</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
+        <v>300</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="F128" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" t="s">
-        <v>325</v>
-      </c>
-      <c r="D129">
-        <v>10000</v>
+      <c r="A129" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="F129" t="s">
-        <v>314</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="5"/>
+      <c r="B130" t="s">
+        <v>305</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F130" t="s">
-        <v>314</v>
+        <v>306</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
-      <c r="B131" s="5" t="s">
-        <v>328</v>
+      <c r="B131" t="s">
+        <v>309</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F131" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" t="s">
-        <v>233</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>63</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="F132" t="s">
         <v>314</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="H132" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" t="s">
-        <v>331</v>
-      </c>
-      <c r="D133" t="s">
-        <v>399</v>
+      <c r="B133" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F133" t="s">
         <v>314</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" t="s">
-        <v>333</v>
+      <c r="B134" t="s">
+        <v>353</v>
       </c>
       <c r="D134" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F134" t="s">
         <v>314</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
-      <c r="B135" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>63</v>
+      <c r="B135" t="s">
+        <v>322</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="F135" t="s">
         <v>314</v>
       </c>
+      <c r="G135" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" t="s">
-        <v>233</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>391</v>
+      <c r="B136" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136">
+        <v>10000</v>
       </c>
       <c r="F136" t="s">
         <v>314</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" t="s">
-        <v>340</v>
-      </c>
-      <c r="D137" t="s">
-        <v>281</v>
+      <c r="A137" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="F137" t="s">
         <v>314</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="H137" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
-      <c r="B138" t="s">
-        <v>342</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>63</v>
+      <c r="B138" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="F138" t="s">
         <v>314</v>
       </c>
-      <c r="G138" s="2" t="s">
+    </row>
+    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="6"/>
+      <c r="C139" t="s">
+        <v>233</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F139" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" s="6"/>
+      <c r="C140" t="s">
+        <v>333</v>
+      </c>
+      <c r="D140" t="s">
+        <v>334</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F140" t="s">
+        <v>314</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" t="s">
+        <v>412</v>
+      </c>
+      <c r="D141" t="s">
+        <v>413</v>
+      </c>
+      <c r="F141" t="s">
+        <v>314</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F142" t="s">
+        <v>314</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" t="s">
+        <v>233</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F143" t="s">
+        <v>314</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" t="s">
+        <v>331</v>
+      </c>
+      <c r="D144" t="s">
+        <v>399</v>
+      </c>
+      <c r="F144" t="s">
+        <v>314</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" t="s">
+        <v>333</v>
+      </c>
+      <c r="D145" t="s">
+        <v>334</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F145" t="s">
+        <v>314</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" t="s">
+        <v>233</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F147" t="s">
+        <v>314</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" t="s">
+        <v>340</v>
+      </c>
+      <c r="D148" t="s">
+        <v>281</v>
+      </c>
+      <c r="F148" t="s">
+        <v>314</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="B149" t="s">
+        <v>342</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F149" t="s">
+        <v>314</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>343</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H138" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
-  <mergeCells count="24">
+  <autoFilter ref="A1:H149" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
+  <mergeCells count="27">
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="A60:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="A89:A116"/>
+    <mergeCell ref="B100:B110"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="A117:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A149"/>
+    <mergeCell ref="B90:B99"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A50"/>
+    <mergeCell ref="A34:A52"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="A53:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="A82:A109"/>
-    <mergeCell ref="B93:B103"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="A110:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A138"/>
-    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5B618-9919-AA4F-AAAA-CD4A0E936B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B42F5B3E-750E-3345-9AD7-37C1E53259F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32380" yWindow="800" windowWidth="31000" windowHeight="20240" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="config_explained" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config_explained!$A$1:$H$153</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="423">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -1276,6 +1276,27 @@
   </si>
   <si>
     <t xml:space="preserve">  fungalTraits</t>
+  </si>
+  <si>
+    <t>rm_phix</t>
+  </si>
+  <si>
+    <t>remove phiX</t>
+  </si>
+  <si>
+    <t>trim_left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this many bases will be cut from the 5' end of fwd reads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this many bases will be cut from the 5' end of rvs reads </t>
+  </si>
+  <si>
+    <t>filtered reads will have length truncLen-trimLeft</t>
+  </si>
+  <si>
+    <t>useful with Illumina sequencing</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1325,8 +1346,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1641,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B259DD-FAC6-FB4A-84F8-11B4141970E7}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:B145"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2057,7 +2082,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
@@ -2083,8 +2108,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
@@ -2107,8 +2132,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>41</v>
       </c>
@@ -2126,8 +2151,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -2148,8 +2173,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
@@ -2172,8 +2197,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>52</v>
       </c>
@@ -2191,8 +2216,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>57</v>
       </c>
@@ -2253,7 +2278,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="s">
@@ -2264,7 +2289,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>74</v>
       </c>
@@ -2282,7 +2307,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>77</v>
       </c>
@@ -2300,7 +2325,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>80</v>
       </c>
@@ -2321,7 +2346,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>85</v>
       </c>
@@ -2342,7 +2367,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>89</v>
       </c>
@@ -2360,7 +2385,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -2381,7 +2406,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B34" t="s">
@@ -2407,8 +2432,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
         <v>100</v>
       </c>
       <c r="F35" t="s">
@@ -2419,8 +2444,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -2441,8 +2466,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
       <c r="C37" t="s">
         <v>106</v>
       </c>
@@ -2463,8 +2488,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F38" t="s">
@@ -2475,8 +2500,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
       <c r="C39" t="s">
         <v>103</v>
       </c>
@@ -2494,8 +2519,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>106</v>
       </c>
@@ -2513,8 +2538,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F41" t="s">
@@ -2525,8 +2550,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
       <c r="C42" t="s">
         <v>114</v>
       </c>
@@ -2547,8 +2572,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
       <c r="C43" t="s">
         <v>106</v>
       </c>
@@ -2569,8 +2594,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F44" t="s">
@@ -2581,8 +2606,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" t="s">
         <v>103</v>
       </c>
@@ -2603,8 +2628,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" t="s">
         <v>106</v>
       </c>
@@ -2625,8 +2650,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
         <v>127</v>
       </c>
       <c r="F47" t="s">
@@ -2637,8 +2662,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" t="s">
         <v>103</v>
       </c>
@@ -2656,8 +2681,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" t="s">
         <v>106</v>
       </c>
@@ -2678,8 +2703,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F50" t="s">
@@ -2690,8 +2715,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
@@ -2712,8 +2737,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
       <c r="C52" t="s">
         <v>106</v>
       </c>
@@ -2734,123 +2759,135 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F53" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>141</v>
       </c>
-      <c r="D53">
+      <c r="D57">
         <v>100</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="F54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" t="s">
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" t="s">
         <v>316</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F55" t="s">
-        <v>101</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" t="s">
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" t="s">
         <v>406</v>
       </c>
-      <c r="D56">
+      <c r="D60">
         <v>50000</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" t="s">
-        <v>101</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" t="s">
-        <v>408</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" t="s">
-        <v>101</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" t="s">
-        <v>407</v>
-      </c>
-      <c r="D58">
-        <v>123</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" t="s">
-        <v>101</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60">
-        <v>16</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>78</v>
@@ -2859,229 +2896,210 @@
         <v>101</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" t="s">
+        <v>408</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62">
+        <v>123</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" t="s">
+    <row r="65" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" t="s">
         <v>149</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D65" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F61" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="F65" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" t="s">
+    <row r="66" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" t="s">
         <v>154</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D66" t="s">
         <v>155</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F62" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="F66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" t="s">
+    <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D67" s="1">
         <v>9.9999999999999993E-41</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F63" t="s">
-        <v>101</v>
-      </c>
-      <c r="G63" s="2" t="s">
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" t="s">
+    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" t="s">
         <v>161</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D68" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F64" t="s">
-        <v>101</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F65" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="1">
-        <v>9.9999999999999993E-41</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F66" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" t="s">
-        <v>101</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" t="s">
-        <v>155</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" t="s">
-        <v>101</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
+    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
       <c r="B69" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" t="s">
-        <v>176</v>
+        <v>166</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1E-4</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F69" t="s">
         <v>101</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
       <c r="B70" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" t="s">
-        <v>62</v>
+        <v>169</v>
+      </c>
+      <c r="D70" s="1">
+        <v>9.9999999999999993E-41</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="F70" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
+    <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>63</v>
@@ -3090,290 +3108,293 @@
         <v>101</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
+      <c r="A72" s="6"/>
       <c r="B72" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72">
-        <v>0.42</v>
+        <v>173</v>
+      </c>
+      <c r="D72" t="s">
+        <v>155</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="F72" t="s">
         <v>101</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
+    <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
       <c r="B73" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
+        <v>175</v>
+      </c>
+      <c r="D73" t="s">
+        <v>176</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F73" t="s">
         <v>101</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
       <c r="B74" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74">
-        <v>-5</v>
+        <v>180</v>
+      </c>
+      <c r="D74" t="s">
+        <v>62</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="F74" t="s">
         <v>101</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
+    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
       <c r="B75" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76">
+        <v>0.42</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78">
+        <v>-5</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" t="s">
         <v>193</v>
       </c>
-      <c r="D75">
+      <c r="D79">
         <v>-8</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F75" t="s">
-        <v>101</v>
-      </c>
-      <c r="G75" s="2" t="s">
+      <c r="F79" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="H76" s="2" t="s">
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" t="s">
+    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" t="s">
         <v>197</v>
       </c>
-      <c r="D77">
+      <c r="D81">
         <v>12</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F77" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="F81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" t="s">
+    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" t="s">
         <v>199</v>
       </c>
-      <c r="D78">
+      <c r="D82">
         <v>0</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F78" t="s">
-        <v>101</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="F82" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" t="s">
+    <row r="83" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A83" s="6"/>
+      <c r="B83" t="s">
         <v>202</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D83" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F79" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="F83" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" t="s">
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" t="s">
         <v>205</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D84" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="F84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F81" t="s">
-        <v>101</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="F85" t="s">
+        <v>101</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" t="s">
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" t="s">
         <v>210</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D86" t="s">
         <v>62</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F82" t="s">
-        <v>101</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" t="s">
-        <v>212</v>
-      </c>
-      <c r="D83" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" t="s">
-        <v>217</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F84" t="s">
-        <v>101</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" t="s">
-        <v>221</v>
-      </c>
-      <c r="D85">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F85" t="s">
-        <v>101</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" t="s">
-        <v>223</v>
-      </c>
-      <c r="D86" t="s">
-        <v>155</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>63</v>
@@ -3382,183 +3403,185 @@
         <v>101</v>
       </c>
       <c r="G86" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F89" t="s">
+        <v>101</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" t="s">
+        <v>101</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" t="s">
+    <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" t="s">
         <v>225</v>
       </c>
-      <c r="D87">
+      <c r="D91">
         <v>4</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="F91" t="s">
+        <v>101</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" t="s">
+    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" t="s">
         <v>227</v>
       </c>
-      <c r="D88">
+      <c r="D92">
         <v>16</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="F92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="F89" t="s">
-        <v>229</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F90" t="s">
-        <v>229</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" t="s">
-        <v>233</v>
-      </c>
-      <c r="D91" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F91" t="s">
-        <v>229</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" t="s">
-        <v>236</v>
-      </c>
-      <c r="D92" t="s">
-        <v>155</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F92" t="s">
-        <v>229</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" t="s">
-        <v>239</v>
-      </c>
-      <c r="D93" t="s">
-        <v>393</v>
       </c>
       <c r="F93" t="s">
         <v>229</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="H93" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" t="s">
-        <v>385</v>
-      </c>
-      <c r="D94" t="s">
-        <v>394</v>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F94" t="s">
         <v>229</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="H94" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
       <c r="C95" t="s">
-        <v>386</v>
-      </c>
-      <c r="D95">
-        <v>50</v>
+        <v>233</v>
+      </c>
+      <c r="D95" t="s">
+        <v>155</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="F95" t="s">
         <v>229</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>247</v>
+        <v>380</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
       <c r="C96" t="s">
-        <v>387</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
         <v>155</v>
@@ -3570,114 +3593,118 @@
         <v>229</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
       <c r="C97" t="s">
-        <v>256</v>
-      </c>
-      <c r="D97">
-        <v>100</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>239</v>
+      </c>
+      <c r="D97" t="s">
+        <v>393</v>
       </c>
       <c r="F97" t="s">
         <v>229</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>383</v>
+        <v>241</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
       <c r="C98" t="s">
-        <v>258</v>
+        <v>385</v>
       </c>
       <c r="D98" t="s">
-        <v>155</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>394</v>
       </c>
       <c r="F98" t="s">
         <v>229</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
       <c r="C99" t="s">
-        <v>261</v>
-      </c>
-      <c r="D99" t="s">
-        <v>395</v>
+        <v>386</v>
+      </c>
+      <c r="D99">
+        <v>50</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F99" t="s">
         <v>229</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5" t="s">
-        <v>231</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" t="s">
+        <v>387</v>
+      </c>
+      <c r="D100" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F100" t="s">
         <v>229</v>
       </c>
+      <c r="G100" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="H100" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
       <c r="C101" t="s">
-        <v>233</v>
-      </c>
-      <c r="D101" t="s">
-        <v>155</v>
+        <v>256</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F101" t="s">
         <v>229</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
       <c r="C102" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D102" t="s">
         <v>155</v>
@@ -3689,212 +3716,212 @@
         <v>229</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D103" t="s">
-        <v>240</v>
+        <v>395</v>
       </c>
       <c r="F103" t="s">
         <v>229</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" t="s">
-        <v>243</v>
-      </c>
-      <c r="D104" t="s">
-        <v>396</v>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="F104" t="s">
         <v>229</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="H104" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
       <c r="C105" t="s">
-        <v>245</v>
-      </c>
-      <c r="D105">
-        <v>60</v>
+        <v>233</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="F105" t="s">
         <v>229</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D106" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="F106" t="s">
         <v>229</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
       <c r="C107" t="s">
-        <v>254</v>
-      </c>
-      <c r="D107">
-        <v>100</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>78</v>
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
+        <v>240</v>
       </c>
       <c r="F107" t="s">
         <v>229</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
       <c r="C108" t="s">
-        <v>256</v>
-      </c>
-      <c r="D108">
-        <v>100</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>243</v>
+      </c>
+      <c r="D108" t="s">
+        <v>396</v>
       </c>
       <c r="F108" t="s">
         <v>229</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
       <c r="C109" t="s">
-        <v>258</v>
-      </c>
-      <c r="D109" t="s">
-        <v>155</v>
+        <v>245</v>
+      </c>
+      <c r="D109">
+        <v>60</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="F109" t="s">
         <v>229</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D110" t="s">
-        <v>395</v>
+        <v>250</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="F110" t="s">
         <v>229</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5" t="s">
-        <v>263</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" t="s">
+        <v>254</v>
+      </c>
+      <c r="D111">
+        <v>100</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F111" t="s">
         <v>229</v>
       </c>
-      <c r="H111" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="G111" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
       <c r="C112" t="s">
-        <v>233</v>
-      </c>
-      <c r="D112" t="s">
-        <v>62</v>
+        <v>256</v>
+      </c>
+      <c r="D112">
+        <v>100</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F112" t="s">
         <v>229</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D113" t="s">
         <v>155</v>
@@ -3906,499 +3933,505 @@
         <v>229</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
       <c r="C114" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D114" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F114" t="s">
         <v>229</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" t="s">
-        <v>243</v>
-      </c>
-      <c r="D115" t="s">
-        <v>392</v>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="F115" t="s">
         <v>229</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="H115" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
       <c r="C116" t="s">
-        <v>271</v>
-      </c>
-      <c r="D116">
-        <v>60</v>
+        <v>233</v>
+      </c>
+      <c r="D116" t="s">
+        <v>62</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="F116" t="s">
         <v>229</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F117" t="s">
         <v>229</v>
       </c>
+      <c r="G117" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" t="s">
-        <v>233</v>
-      </c>
-      <c r="C118" t="b">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>63</v>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118" t="s">
+        <v>398</v>
       </c>
       <c r="F118" t="s">
         <v>229</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" t="s">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
       <c r="C119" t="s">
-        <v>397</v>
+        <v>243</v>
+      </c>
+      <c r="D119" t="s">
+        <v>392</v>
       </c>
       <c r="F119" t="s">
         <v>229</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" t="s">
-        <v>243</v>
-      </c>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="D120">
+        <v>60</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F120" t="s">
         <v>229</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" t="s">
-        <v>278</v>
-      </c>
-      <c r="C121">
-        <v>0.01</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="F121" t="s">
         <v>229</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
+    </row>
+    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="6"/>
       <c r="B122" t="s">
-        <v>280</v>
-      </c>
-      <c r="C122" t="s">
-        <v>281</v>
+        <v>233</v>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>282</v>
+        <v>63</v>
       </c>
       <c r="F122" t="s">
         <v>229</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="6"/>
       <c r="B123" t="s">
-        <v>285</v>
-      </c>
-      <c r="C123" t="b">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="C123" t="s">
+        <v>397</v>
       </c>
       <c r="F123" t="s">
         <v>229</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
-        <v>288</v>
+      <c r="A124" s="6"/>
+      <c r="B124" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" t="s">
+        <v>276</v>
       </c>
       <c r="F124" t="s">
         <v>229</v>
       </c>
-      <c r="H124" s="2" t="s">
-        <v>289</v>
+      <c r="G124" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
+      <c r="A125" s="6"/>
       <c r="B125" t="s">
-        <v>290</v>
-      </c>
-      <c r="D125" t="s">
-        <v>155</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>278</v>
+      </c>
+      <c r="C125">
+        <v>0.01</v>
       </c>
       <c r="F125" t="s">
         <v>229</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
+      <c r="A126" s="6"/>
       <c r="B126" t="s">
-        <v>293</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126" s="3">
-        <v>43922</v>
+        <v>280</v>
+      </c>
+      <c r="C126" t="s">
+        <v>281</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="F126" t="s">
         <v>229</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
       <c r="B127" t="s">
-        <v>296</v>
-      </c>
-      <c r="D127" t="s">
-        <v>297</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
       </c>
       <c r="F127" t="s">
         <v>229</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" t="s">
-        <v>300</v>
-      </c>
-      <c r="D128" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>86</v>
+      <c r="A128" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="F128" t="s">
         <v>229</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="6"/>
+      <c r="B129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D129" t="s">
+        <v>155</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F129" t="s">
+        <v>229</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="6"/>
+      <c r="B130" t="s">
+        <v>293</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" s="3">
+        <v>43922</v>
+      </c>
+      <c r="F130" t="s">
+        <v>229</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="6"/>
+      <c r="B131" t="s">
+        <v>296</v>
+      </c>
+      <c r="D131" t="s">
+        <v>297</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F131" t="s">
+        <v>229</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="6"/>
+      <c r="B132" t="s">
+        <v>300</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F132" t="s">
+        <v>229</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F133" t="s">
         <v>303</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" t="s">
+    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="6"/>
+      <c r="B134" t="s">
         <v>305</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D134" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F134" t="s">
         <v>306</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" t="s">
+    <row r="135" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A135" s="6"/>
+      <c r="B135" t="s">
         <v>309</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F135" t="s">
         <v>310</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
+    <row r="136" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="F132" t="s">
-        <v>314</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" t="s">
-        <v>316</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F133" t="s">
-        <v>314</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" t="s">
-        <v>353</v>
-      </c>
-      <c r="D134" t="s">
-        <v>318</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F134" t="s">
-        <v>314</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" t="s">
-        <v>322</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="F135" t="s">
-        <v>314</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" t="s">
-        <v>325</v>
-      </c>
-      <c r="D136">
-        <v>10000</v>
       </c>
       <c r="F136" t="s">
         <v>314</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="H136" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A137" s="6"/>
+      <c r="B137" t="s">
+        <v>316</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F137" t="s">
         <v>314</v>
       </c>
-      <c r="H137" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="6" t="s">
-        <v>415</v>
+      <c r="G137" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A138" s="6"/>
+      <c r="B138" t="s">
+        <v>353</v>
+      </c>
+      <c r="D138" t="s">
+        <v>318</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="F138" t="s">
         <v>314</v>
       </c>
+      <c r="G138" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="6"/>
-      <c r="C139" t="s">
-        <v>233</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>63</v>
+      <c r="A139" s="6"/>
+      <c r="B139" t="s">
+        <v>322</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
       </c>
       <c r="F139" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="6"/>
-      <c r="C140" t="s">
-        <v>333</v>
-      </c>
-      <c r="D140" t="s">
-        <v>334</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>335</v>
+      <c r="G139" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="6"/>
+      <c r="B140" t="s">
+        <v>325</v>
+      </c>
+      <c r="D140">
+        <v>10000</v>
       </c>
       <c r="F140" t="s">
         <v>314</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="6"/>
-      <c r="C141" t="s">
-        <v>412</v>
-      </c>
-      <c r="D141" t="s">
-        <v>413</v>
+      <c r="A141" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="F141" t="s">
         <v>314</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="H141" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="6"/>
+      <c r="B142" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="F142" t="s">
         <v>314</v>
       </c>
-      <c r="H142" s="2" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="7"/>
       <c r="C143" t="s">
         <v>233</v>
       </c>
@@ -4411,145 +4444,215 @@
       <c r="F143" t="s">
         <v>314</v>
       </c>
-      <c r="G143" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
+    </row>
+    <row r="144" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" s="6"/>
+      <c r="B144" s="7"/>
       <c r="C144" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D144" t="s">
-        <v>399</v>
+        <v>334</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F144" t="s">
         <v>314</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="6"/>
+      <c r="B145" s="7"/>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="D145" t="s">
-        <v>334</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="F145" t="s">
         <v>314</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>337</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>63</v>
+      <c r="A146" s="6"/>
+      <c r="B146" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="F146" t="s">
         <v>314</v>
       </c>
+      <c r="H146" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
       <c r="C147" t="s">
         <v>233</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>391</v>
+        <v>364</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F147" t="s">
         <v>314</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
       <c r="C148" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D148" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="F148" t="s">
         <v>314</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-      <c r="B149" t="s">
-        <v>342</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>391</v>
+    <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" t="s">
+        <v>333</v>
+      </c>
+      <c r="D149" t="s">
+        <v>334</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="F149" t="s">
         <v>314</v>
       </c>
       <c r="G149" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F150" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" t="s">
+        <v>233</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F151" t="s">
+        <v>314</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" t="s">
+        <v>340</v>
+      </c>
+      <c r="D152" t="s">
+        <v>281</v>
+      </c>
+      <c r="F152" t="s">
+        <v>314</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="6"/>
+      <c r="B153" t="s">
+        <v>342</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F153" t="s">
+        <v>314</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>343</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H149" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
-  <mergeCells count="27">
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B138:B141"/>
+  <autoFilter ref="A1:H153" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
+  <mergeCells count="28">
+    <mergeCell ref="A58:A62"/>
     <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="A89:A116"/>
-    <mergeCell ref="B100:B110"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="A117:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A149"/>
-    <mergeCell ref="B90:B99"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="A64:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A93:A120"/>
+    <mergeCell ref="B104:B114"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A153"/>
+    <mergeCell ref="B94:B103"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A52"/>
+    <mergeCell ref="A34:A56"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
     <mergeCell ref="B38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B42F5B3E-750E-3345-9AD7-37C1E53259F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBF0B63-1997-9D4C-86DE-E457C45C94D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32380" yWindow="800" windowWidth="31000" windowHeight="20240" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
   </bookViews>
   <sheets>
     <sheet name="config_explained" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config_explained!$A$1:$H$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config_explained!$A$1:$H$159</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="437">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -1297,6 +1297,48 @@
   </si>
   <si>
     <t>useful with Illumina sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tax4fun2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    database_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    normalize_by_copy_number</t>
+  </si>
+  <si>
+    <t>Ref99NR</t>
+  </si>
+  <si>
+    <t>Ref99NR or Ref100NR</t>
+  </si>
+  <si>
+    <t>which tax4fun2 database to use</t>
+  </si>
+  <si>
+    <t>whether tax4fun2 should be run</t>
+  </si>
+  <si>
+    <t>path to tax4fun2 DB</t>
+  </si>
+  <si>
+    <t>whether to normalize tax4fun2 data by copynumber</t>
+  </si>
+  <si>
+    <t>normalization for pathways is no available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    min_identity_to_reference</t>
+  </si>
+  <si>
+    <t>0.9 to 1.0 or 90 to 100</t>
+  </si>
+  <si>
+    <t>similarity of ASV to DB</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1348,10 +1390,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1666,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B259DD-FAC6-FB4A-84F8-11B4141970E7}">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2130,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
@@ -2108,8 +2156,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
@@ -2132,8 +2180,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" t="s">
         <v>41</v>
       </c>
@@ -2151,8 +2199,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -2173,8 +2221,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
@@ -2197,8 +2245,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>52</v>
       </c>
@@ -2216,8 +2264,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>57</v>
       </c>
@@ -2278,7 +2326,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="s">
@@ -2289,7 +2337,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="8"/>
       <c r="B28" t="s">
         <v>74</v>
       </c>
@@ -2307,7 +2355,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>77</v>
       </c>
@@ -2325,7 +2373,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="8"/>
       <c r="B30" t="s">
         <v>80</v>
       </c>
@@ -2346,7 +2394,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="8"/>
       <c r="B31" t="s">
         <v>85</v>
       </c>
@@ -2367,7 +2415,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>89</v>
       </c>
@@ -2385,7 +2433,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -2406,7 +2454,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B34" t="s">
@@ -2432,8 +2480,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
         <v>100</v>
       </c>
       <c r="F35" t="s">
@@ -2444,8 +2492,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -2466,8 +2514,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>106</v>
       </c>
@@ -2487,9 +2535,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F38" t="s">
@@ -2500,8 +2548,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
       <c r="C39" t="s">
         <v>103</v>
       </c>
@@ -2519,8 +2567,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>106</v>
       </c>
@@ -2538,8 +2586,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F41" t="s">
@@ -2550,8 +2598,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" t="s">
         <v>114</v>
       </c>
@@ -2572,8 +2620,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
       <c r="C43" t="s">
         <v>106</v>
       </c>
@@ -2594,8 +2642,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8" t="s">
         <v>121</v>
       </c>
       <c r="F44" t="s">
@@ -2606,8 +2654,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" t="s">
         <v>103</v>
       </c>
@@ -2628,8 +2676,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
       <c r="C46" t="s">
         <v>106</v>
       </c>
@@ -2650,8 +2698,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
         <v>127</v>
       </c>
       <c r="F47" t="s">
@@ -2662,8 +2710,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>103</v>
       </c>
@@ -2681,8 +2729,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>106</v>
       </c>
@@ -2703,8 +2751,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8" t="s">
         <v>134</v>
       </c>
       <c r="F50" t="s">
@@ -2715,8 +2763,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
@@ -2737,8 +2785,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>106</v>
       </c>
@@ -2759,8 +2807,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F53" t="s">
@@ -2771,8 +2819,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
       <c r="C54" t="s">
         <v>103</v>
       </c>
@@ -2788,13 +2836,13 @@
       <c r="G54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>106</v>
       </c>
@@ -2810,12 +2858,12 @@
       <c r="G55" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="5" t="s">
         <v>416</v>
       </c>
@@ -2856,7 +2904,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="8" t="s">
         <v>404</v>
       </c>
       <c r="F58" t="s">
@@ -2864,7 +2912,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+      <c r="A59" s="8"/>
       <c r="B59" t="s">
         <v>316</v>
       </c>
@@ -2882,7 +2930,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+      <c r="A60" s="8"/>
       <c r="B60" t="s">
         <v>406</v>
       </c>
@@ -2900,7 +2948,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+      <c r="A61" s="8"/>
       <c r="B61" t="s">
         <v>408</v>
       </c>
@@ -2921,7 +2969,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+      <c r="A62" s="8"/>
       <c r="B62" t="s">
         <v>407</v>
       </c>
@@ -2947,7 +2995,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
+      <c r="A64" s="8"/>
       <c r="B64" t="s">
         <v>146</v>
       </c>
@@ -2968,7 +3016,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
+      <c r="A65" s="8"/>
       <c r="B65" t="s">
         <v>149</v>
       </c>
@@ -2989,7 +3037,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+      <c r="A66" s="8"/>
       <c r="B66" t="s">
         <v>154</v>
       </c>
@@ -3010,7 +3058,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+      <c r="A67" s="8"/>
       <c r="B67" t="s">
         <v>157</v>
       </c>
@@ -3031,7 +3079,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
+      <c r="A68" s="8"/>
       <c r="B68" t="s">
         <v>161</v>
       </c>
@@ -3052,7 +3100,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+      <c r="A69" s="8"/>
       <c r="B69" t="s">
         <v>166</v>
       </c>
@@ -3073,7 +3121,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+      <c r="A70" s="8"/>
       <c r="B70" t="s">
         <v>169</v>
       </c>
@@ -3094,7 +3142,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+      <c r="A71" s="8"/>
       <c r="B71" t="s">
         <v>171</v>
       </c>
@@ -3115,7 +3163,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
+      <c r="A72" s="8"/>
       <c r="B72" t="s">
         <v>173</v>
       </c>
@@ -3136,7 +3184,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+      <c r="A73" s="8"/>
       <c r="B73" t="s">
         <v>175</v>
       </c>
@@ -3157,7 +3205,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
+      <c r="A74" s="8"/>
       <c r="B74" t="s">
         <v>180</v>
       </c>
@@ -3178,7 +3226,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+      <c r="A75" s="8"/>
       <c r="B75" t="s">
         <v>182</v>
       </c>
@@ -3199,7 +3247,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+      <c r="A76" s="8"/>
       <c r="B76" t="s">
         <v>185</v>
       </c>
@@ -3220,7 +3268,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+      <c r="A77" s="8"/>
       <c r="B77" t="s">
         <v>188</v>
       </c>
@@ -3241,7 +3289,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
+      <c r="A78" s="8"/>
       <c r="B78" t="s">
         <v>191</v>
       </c>
@@ -3262,7 +3310,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
+      <c r="A79" s="8"/>
       <c r="B79" t="s">
         <v>193</v>
       </c>
@@ -3283,7 +3331,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="8" t="s">
         <v>195</v>
       </c>
       <c r="F80" t="s">
@@ -3294,7 +3342,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+      <c r="A81" s="8"/>
       <c r="B81" t="s">
         <v>197</v>
       </c>
@@ -3315,7 +3363,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+      <c r="A82" s="8"/>
       <c r="B82" t="s">
         <v>199</v>
       </c>
@@ -3336,7 +3384,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+      <c r="A83" s="8"/>
       <c r="B83" t="s">
         <v>202</v>
       </c>
@@ -3357,7 +3405,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+      <c r="A84" s="8"/>
       <c r="B84" t="s">
         <v>205</v>
       </c>
@@ -3378,7 +3426,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="8" t="s">
         <v>208</v>
       </c>
       <c r="F85" t="s">
@@ -3389,7 +3437,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
+      <c r="A86" s="8"/>
       <c r="B86" t="s">
         <v>210</v>
       </c>
@@ -3407,7 +3455,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
+      <c r="A87" s="8"/>
       <c r="B87" t="s">
         <v>212</v>
       </c>
@@ -3428,7 +3476,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
+      <c r="A88" s="8"/>
       <c r="B88" t="s">
         <v>217</v>
       </c>
@@ -3449,7 +3497,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
+      <c r="A89" s="8"/>
       <c r="B89" t="s">
         <v>221</v>
       </c>
@@ -3470,7 +3518,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
+      <c r="A90" s="8"/>
       <c r="B90" t="s">
         <v>223</v>
       </c>
@@ -3491,7 +3539,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
+      <c r="A91" s="8"/>
       <c r="B91" t="s">
         <v>225</v>
       </c>
@@ -3512,7 +3560,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
+      <c r="A92" s="8"/>
       <c r="B92" t="s">
         <v>227</v>
       </c>
@@ -3533,7 +3581,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="8" t="s">
         <v>229</v>
       </c>
       <c r="F93" t="s">
@@ -3544,8 +3592,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F94" t="s">
@@ -3556,8 +3604,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>233</v>
       </c>
@@ -3578,8 +3626,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>236</v>
       </c>
@@ -3600,8 +3648,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>239</v>
       </c>
@@ -3619,8 +3667,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>385</v>
       </c>
@@ -3635,8 +3683,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>386</v>
       </c>
@@ -3657,8 +3705,8 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>387</v>
       </c>
@@ -3679,8 +3727,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
       <c r="C101" t="s">
         <v>256</v>
       </c>
@@ -3701,8 +3749,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
       <c r="C102" t="s">
         <v>258</v>
       </c>
@@ -3723,8 +3771,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
       <c r="C103" t="s">
         <v>261</v>
       </c>
@@ -3742,8 +3790,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6" t="s">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8" t="s">
         <v>231</v>
       </c>
       <c r="F104" t="s">
@@ -3754,8 +3802,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
       <c r="C105" t="s">
         <v>233</v>
       </c>
@@ -3776,8 +3824,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
       <c r="C106" t="s">
         <v>236</v>
       </c>
@@ -3798,8 +3846,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
       <c r="C107" t="s">
         <v>239</v>
       </c>
@@ -3817,8 +3865,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
       <c r="C108" t="s">
         <v>243</v>
       </c>
@@ -3833,8 +3881,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
       <c r="C109" t="s">
         <v>245</v>
       </c>
@@ -3855,8 +3903,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
       <c r="C110" t="s">
         <v>249</v>
       </c>
@@ -3877,8 +3925,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
       <c r="C111" t="s">
         <v>254</v>
       </c>
@@ -3896,8 +3944,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
       <c r="C112" t="s">
         <v>256</v>
       </c>
@@ -3918,8 +3966,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
       <c r="C113" t="s">
         <v>258</v>
       </c>
@@ -3940,8 +3988,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
       <c r="C114" t="s">
         <v>261</v>
       </c>
@@ -3959,8 +4007,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6" t="s">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8" t="s">
         <v>263</v>
       </c>
       <c r="F115" t="s">
@@ -3971,8 +4019,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
       <c r="C116" t="s">
         <v>233</v>
       </c>
@@ -3993,8 +4041,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>236</v>
       </c>
@@ -4015,8 +4063,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>239</v>
       </c>
@@ -4034,8 +4082,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
       <c r="C119" t="s">
         <v>243</v>
       </c>
@@ -4053,8 +4101,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>271</v>
       </c>
@@ -4072,7 +4120,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="8" t="s">
         <v>273</v>
       </c>
       <c r="F121" t="s">
@@ -4080,7 +4128,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="6"/>
+      <c r="A122" s="8"/>
       <c r="B122" t="s">
         <v>233</v>
       </c>
@@ -4098,7 +4146,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="6"/>
+      <c r="A123" s="8"/>
       <c r="B123" t="s">
         <v>239</v>
       </c>
@@ -4113,7 +4161,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="6"/>
+      <c r="A124" s="8"/>
       <c r="B124" t="s">
         <v>243</v>
       </c>
@@ -4128,7 +4176,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
+      <c r="A125" s="8"/>
       <c r="B125" t="s">
         <v>278</v>
       </c>
@@ -4143,7 +4191,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="6"/>
+      <c r="A126" s="8"/>
       <c r="B126" t="s">
         <v>280</v>
       </c>
@@ -4164,7 +4212,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
+      <c r="A127" s="8"/>
       <c r="B127" t="s">
         <v>285</v>
       </c>
@@ -4182,7 +4230,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="8" t="s">
         <v>288</v>
       </c>
       <c r="F128" t="s">
@@ -4193,7 +4241,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
+      <c r="A129" s="8"/>
       <c r="B129" t="s">
         <v>290</v>
       </c>
@@ -4214,7 +4262,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
+      <c r="A130" s="8"/>
       <c r="B130" t="s">
         <v>293</v>
       </c>
@@ -4235,7 +4283,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
+      <c r="A131" s="8"/>
       <c r="B131" t="s">
         <v>296</v>
       </c>
@@ -4253,7 +4301,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="6"/>
+      <c r="A132" s="8"/>
       <c r="B132" t="s">
         <v>300</v>
       </c>
@@ -4271,7 +4319,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="8" t="s">
         <v>302</v>
       </c>
       <c r="F133" t="s">
@@ -4282,7 +4330,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="6"/>
+      <c r="A134" s="8"/>
       <c r="B134" t="s">
         <v>305</v>
       </c>
@@ -4303,7 +4351,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A135" s="6"/>
+      <c r="A135" s="8"/>
       <c r="B135" t="s">
         <v>309</v>
       </c>
@@ -4324,7 +4372,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="8" t="s">
         <v>313</v>
       </c>
       <c r="F136" t="s">
@@ -4335,7 +4383,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A137" s="6"/>
+      <c r="A137" s="8"/>
       <c r="B137" t="s">
         <v>316</v>
       </c>
@@ -4353,7 +4401,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A138" s="6"/>
+      <c r="A138" s="8"/>
       <c r="B138" t="s">
         <v>353</v>
       </c>
@@ -4374,7 +4422,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="6"/>
+      <c r="A139" s="8"/>
       <c r="B139" t="s">
         <v>322</v>
       </c>
@@ -4392,7 +4440,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="6"/>
+      <c r="A140" s="8"/>
       <c r="B140" t="s">
         <v>325</v>
       </c>
@@ -4410,7 +4458,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="10" t="s">
         <v>314</v>
       </c>
       <c r="F141" t="s">
@@ -4421,8 +4469,8 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7" t="s">
+      <c r="A142" s="10"/>
+      <c r="B142" s="9" t="s">
         <v>415</v>
       </c>
       <c r="F142" t="s">
@@ -4430,8 +4478,8 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="9"/>
       <c r="C143" t="s">
         <v>233</v>
       </c>
@@ -4446,8 +4494,8 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="6"/>
-      <c r="B144" s="7"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="9"/>
       <c r="C144" t="s">
         <v>333</v>
       </c>
@@ -4468,8 +4516,8 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="6"/>
-      <c r="B145" s="7"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="9"/>
       <c r="C145" t="s">
         <v>412</v>
       </c>
@@ -4487,8 +4535,8 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6" t="s">
+      <c r="A146" s="10"/>
+      <c r="B146" s="8" t="s">
         <v>328</v>
       </c>
       <c r="F146" t="s">
@@ -4499,8 +4547,8 @@
       </c>
     </row>
     <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="8"/>
       <c r="C147" t="s">
         <v>233</v>
       </c>
@@ -4518,8 +4566,8 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="8"/>
       <c r="C148" t="s">
         <v>331</v>
       </c>
@@ -4537,8 +4585,8 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="8"/>
       <c r="C149" t="s">
         <v>333</v>
       </c>
@@ -4559,79 +4607,194 @@
       </c>
     </row>
     <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>63</v>
+      <c r="A150" s="10"/>
+      <c r="B150" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="F150" t="s">
         <v>314</v>
       </c>
+      <c r="H150" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="9"/>
       <c r="C151" t="s">
         <v>233</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>391</v>
+        <v>364</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F151" t="s">
         <v>314</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>339</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="9"/>
       <c r="C152" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="D152" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="F152" t="s">
         <v>314</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>341</v>
+        <v>431</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="6"/>
-      <c r="B153" t="s">
-        <v>342</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>391</v>
+      <c r="A153" s="10"/>
+      <c r="B153" s="9"/>
+      <c r="C153" t="s">
+        <v>425</v>
+      </c>
+      <c r="D153" t="s">
+        <v>427</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>63</v>
+        <v>428</v>
       </c>
       <c r="F153" t="s">
         <v>314</v>
       </c>
       <c r="G153" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A154" s="10"/>
+      <c r="B154" s="9"/>
+      <c r="C154" t="s">
+        <v>426</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F154" t="s">
+        <v>314</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
+      <c r="B155" s="9"/>
+      <c r="C155" t="s">
+        <v>434</v>
+      </c>
+      <c r="D155">
+        <v>0.97</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F155" t="s">
+        <v>314</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="6"/>
+      <c r="B156" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F156" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="6"/>
+      <c r="B157" s="8"/>
+      <c r="C157" t="s">
+        <v>233</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F157" t="s">
+        <v>314</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="6"/>
+      <c r="B158" s="8"/>
+      <c r="C158" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" t="s">
+        <v>281</v>
+      </c>
+      <c r="F158" t="s">
+        <v>314</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="6"/>
+      <c r="B159" t="s">
+        <v>342</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F159" t="s">
+        <v>314</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>343</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H153" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
-  <mergeCells count="28">
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B152"/>
+  <autoFilter ref="A1:H159" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
+  <mergeCells count="29">
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B156:B158"/>
     <mergeCell ref="A64:A79"/>
     <mergeCell ref="A80:A84"/>
     <mergeCell ref="A85:A92"/>
@@ -4642,18 +4805,14 @@
     <mergeCell ref="A128:A132"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A153"/>
     <mergeCell ref="B94:B103"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="A141:A155"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B146:B149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBF0B63-1997-9D4C-86DE-E457C45C94D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09153AC7-8F6E-764F-8497-E3F60482C4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="config_explained" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config_explained!$A$1:$H$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config_explained!$A$1:$H$181</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="494">
   <si>
     <t xml:space="preserve">email </t>
   </si>
@@ -858,9 +858,6 @@
     <t>path to blast database</t>
   </si>
   <si>
-    <t>nt</t>
-  </si>
-  <si>
     <t>name (without suffix) of blast database</t>
   </si>
   <si>
@@ -891,9 +888,6 @@
     <t>whether blastn should also be run on sequences that have been classified already</t>
   </si>
   <si>
-    <t>default means blast for run only on non-assigned sequences</t>
-  </si>
-  <si>
     <t>ITSx</t>
   </si>
   <si>
@@ -993,9 +987,6 @@
     <t>pattern to look for in the taxstrings</t>
   </si>
   <si>
-    <t xml:space="preserve"> done based on mothur and DECIPHER result; "." means all are kept; both taxstrings are searched, if both classifiers were used</t>
-  </si>
-  <si>
     <t>target_min_length</t>
   </si>
   <si>
@@ -1104,9 +1095,6 @@
     <t>session name</t>
   </si>
   <si>
-    <t>only read, if you're not using the dadasnake wrapper</t>
-  </si>
-  <si>
     <t>normalMem</t>
   </si>
   <si>
@@ -1200,9 +1188,6 @@
     <t>true takes longer than false</t>
   </si>
   <si>
-    <t>the DADA2 implementation may work less well than the mothur classifier, and it may be slower; you can run either the DADA classifier or mothur (not both)</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -1221,9 +1206,6 @@
     <t>"SILVA_SSU_r138_2019.RData"</t>
   </si>
   <si>
-    <t>"../DBs/blast"</t>
-  </si>
-  <si>
     <t>"../DBs/mothur"</t>
   </si>
   <si>
@@ -1339,6 +1321,195 @@
   </si>
   <si>
     <t>similarity of ASV to DB</t>
+  </si>
+  <si>
+    <t>no need to change - it's only read, if you're not using the dadasnake wrapper</t>
+  </si>
+  <si>
+    <t>change when setting up dadasnake on a new system; will be ignored, if is ref_dbs_full is set</t>
+  </si>
+  <si>
+    <t>decipher database file name</t>
+  </si>
+  <si>
+    <t>will be ignored, if is ref_dbs_full is set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    db_short_names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ref_dbs_full</t>
+  </si>
+  <si>
+    <t>"silva_v138_nr99"</t>
+  </si>
+  <si>
+    <t>short name(s) to label database(s) in the output, separated by a whitespace; should be as many items as in ref_dbs_full</t>
+  </si>
+  <si>
+    <t>if your give less database names than databases, not all databases will be used</t>
+  </si>
+  <si>
+    <t>full path and database file name(s) (without suffix), separated by a whitespace</t>
+  </si>
+  <si>
+    <t>"SILVA_SSU_r132"</t>
+  </si>
+  <si>
+    <t>the DADA2 implementation may work less well than the mothur classifier, and it may be slower</t>
+  </si>
+  <si>
+    <t>"SILVA_138_SSURef_NR99_cut"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "../DBs/blast"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   nt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    run_basta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    basta_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    basta_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    basta_e_val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    basta_alen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    basta_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    basta_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    basta_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    basta_besthit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   basta_perchits</t>
+  </si>
+  <si>
+    <t>default means blast is run on all ASV sequences</t>
+  </si>
+  <si>
+    <t>"../bin/basta"</t>
+  </si>
+  <si>
+    <t>"../DBs/ncbi_taxonomy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    max_targets</t>
+  </si>
+  <si>
+    <t>maximum number of hits that are recorded</t>
+  </si>
+  <si>
+    <t>needs to be smaller or equal to max_targets</t>
+  </si>
+  <si>
+    <t>an odd number greater than 50</t>
+  </si>
+  <si>
+    <t>whether BASTA should be run on the BLASTn output</t>
+  </si>
+  <si>
+    <t>path to the basta binary</t>
+  </si>
+  <si>
+    <t>basta needs to be installed manually</t>
+  </si>
+  <si>
+    <t>path to the NCBI-taxonomy database that is prepared when basta is installed</t>
+  </si>
+  <si>
+    <t>make sure you run these steps during installation of basta</t>
+  </si>
+  <si>
+    <t>e-value for hit selection</t>
+  </si>
+  <si>
+    <t>minimum alignment length of hits</t>
+  </si>
+  <si>
+    <t>if set to 0 all hits will be considered</t>
+  </si>
+  <si>
+    <t>maximum number of hits to use for classification</t>
+  </si>
+  <si>
+    <t>minimum number of hits a sequence must have to be assigned an LCA</t>
+  </si>
+  <si>
+    <t>minimum identity of hit to be considered good</t>
+  </si>
+  <si>
+    <t>if set the final taxonomy will contain an additional column containing the taxonomy of the best (first) hit with defined taxonomy</t>
+  </si>
+  <si>
+    <t>percentage of hits that are used for LCA estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  query_taxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  target_taxon</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>see https://microbiology.se/publ/itsx_users_guide.pdf</t>
+  </si>
+  <si>
+    <t>. or a single letter (except J, K, N, V, W, Z)</t>
+  </si>
+  <si>
+    <t>evaluate ITS model for these taxonomic groups</t>
+  </si>
+  <si>
+    <t>a single letter (except J, K, N, V, W, Z)</t>
+  </si>
+  <si>
+    <t>return hits to this taxonomic group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> done based on all classifiers; "." means all are kept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user_data</t>
+  </si>
+  <si>
+    <t>whether user database should be used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user_dir</t>
+  </si>
+  <si>
+    <t>"../DBs/Functions/GTDB_202_tax4fun2"</t>
+  </si>
+  <si>
+    <t>path to user database</t>
+  </si>
+  <si>
+    <t>GTDB_fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user_db    </t>
+  </si>
+  <si>
+    <t>name of the user database folder</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1387,18 +1558,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B259DD-FAC6-FB4A-84F8-11B4141970E7}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,28 +1899,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" t="s">
         <v>344</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>346</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="F1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1781,147 +1946,147 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H4" t="s">
         <v>368</v>
-      </c>
-      <c r="H4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" t="s">
         <v>365</v>
       </c>
-      <c r="F5" t="s">
-        <v>356</v>
-      </c>
-      <c r="G5" t="s">
-        <v>369</v>
-      </c>
       <c r="H5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" t="s">
         <v>366</v>
       </c>
-      <c r="F6" t="s">
-        <v>356</v>
-      </c>
-      <c r="G6" t="s">
-        <v>370</v>
-      </c>
       <c r="H6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" t="s">
-        <v>371</v>
-      </c>
       <c r="H7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H8" t="s">
         <v>371</v>
-      </c>
-      <c r="H8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2130,7 +2295,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
@@ -2156,8 +2321,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
@@ -2180,8 +2345,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>41</v>
       </c>
@@ -2199,8 +2364,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -2221,8 +2386,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
@@ -2245,8 +2410,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>52</v>
       </c>
@@ -2264,8 +2429,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>57</v>
       </c>
@@ -2326,7 +2491,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F27" t="s">
@@ -2337,7 +2502,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>74</v>
       </c>
@@ -2355,7 +2520,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>77</v>
       </c>
@@ -2373,7 +2538,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>80</v>
       </c>
@@ -2394,7 +2559,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>85</v>
       </c>
@@ -2415,7 +2580,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>89</v>
       </c>
@@ -2433,7 +2598,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -2454,7 +2619,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B34" t="s">
@@ -2480,8 +2645,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F35" t="s">
@@ -2491,9 +2656,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -2514,8 +2679,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>106</v>
       </c>
@@ -2536,8 +2701,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F38" t="s">
@@ -2548,8 +2713,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>103</v>
       </c>
@@ -2563,12 +2728,12 @@
         <v>101</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>106</v>
       </c>
@@ -2582,12 +2747,12 @@
         <v>101</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F41" t="s">
@@ -2598,8 +2763,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>114</v>
       </c>
@@ -2620,8 +2785,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>106</v>
       </c>
@@ -2642,8 +2807,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F44" t="s">
@@ -2654,8 +2819,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>103</v>
       </c>
@@ -2676,8 +2841,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" t="s">
         <v>106</v>
       </c>
@@ -2698,8 +2863,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>127</v>
       </c>
       <c r="F47" t="s">
@@ -2710,8 +2875,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="C48" t="s">
         <v>103</v>
       </c>
@@ -2729,8 +2894,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" t="s">
         <v>106</v>
       </c>
@@ -2751,8 +2916,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F50" t="s">
@@ -2763,8 +2928,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
       <c r="C51" t="s">
         <v>103</v>
       </c>
@@ -2785,8 +2950,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" t="s">
         <v>106</v>
       </c>
@@ -2807,9 +2972,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>418</v>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="F53" t="s">
         <v>101</v>
@@ -2819,8 +2984,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
       <c r="C54" t="s">
         <v>103</v>
       </c>
@@ -2834,15 +2999,15 @@
         <v>101</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
       <c r="C55" t="s">
         <v>106</v>
       </c>
@@ -2856,19 +3021,19 @@
         <v>101</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>63</v>
@@ -2877,10 +3042,10 @@
         <v>101</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2904,20 +3069,20 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>404</v>
+      <c r="A58" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="F58" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="A59" s="7"/>
       <c r="B59" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>63</v>
@@ -2926,13 +3091,13 @@
         <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D60">
         <v>50000</v>
@@ -2944,16 +3109,16 @@
         <v>101</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="A61" s="7"/>
       <c r="B61" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>63</v>
@@ -2962,16 +3127,16 @@
         <v>101</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+      <c r="A62" s="7"/>
       <c r="B62" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D62">
         <v>123</v>
@@ -2994,8 +3159,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+    <row r="64" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
       <c r="B64" t="s">
         <v>146</v>
       </c>
@@ -3016,7 +3181,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="A65" s="7"/>
       <c r="B65" t="s">
         <v>149</v>
       </c>
@@ -3037,7 +3202,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="7"/>
       <c r="B66" t="s">
         <v>154</v>
       </c>
@@ -3045,7 +3210,7 @@
         <v>155</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F66" t="s">
         <v>101</v>
@@ -3054,11 +3219,11 @@
         <v>156</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="A67" s="7"/>
       <c r="B67" t="s">
         <v>157</v>
       </c>
@@ -3079,7 +3244,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
       <c r="B68" t="s">
         <v>161</v>
       </c>
@@ -3100,7 +3265,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
       <c r="B69" t="s">
         <v>166</v>
       </c>
@@ -3121,7 +3286,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+      <c r="A70" s="7"/>
       <c r="B70" t="s">
         <v>169</v>
       </c>
@@ -3142,7 +3307,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+      <c r="A71" s="7"/>
       <c r="B71" t="s">
         <v>171</v>
       </c>
@@ -3163,7 +3328,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
+      <c r="A72" s="7"/>
       <c r="B72" t="s">
         <v>173</v>
       </c>
@@ -3184,7 +3349,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+      <c r="A73" s="7"/>
       <c r="B73" t="s">
         <v>175</v>
       </c>
@@ -3205,7 +3370,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
+      <c r="A74" s="7"/>
       <c r="B74" t="s">
         <v>180</v>
       </c>
@@ -3226,7 +3391,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
+      <c r="A75" s="7"/>
       <c r="B75" t="s">
         <v>182</v>
       </c>
@@ -3247,7 +3412,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
+      <c r="A76" s="7"/>
       <c r="B76" t="s">
         <v>185</v>
       </c>
@@ -3268,7 +3433,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
+      <c r="A77" s="7"/>
       <c r="B77" t="s">
         <v>188</v>
       </c>
@@ -3289,7 +3454,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="A78" s="7"/>
       <c r="B78" t="s">
         <v>191</v>
       </c>
@@ -3309,8 +3474,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
+    <row r="79" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
       <c r="B79" t="s">
         <v>193</v>
       </c>
@@ -3331,7 +3496,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>195</v>
       </c>
       <c r="F80" t="s">
@@ -3342,7 +3507,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
+      <c r="A81" s="7"/>
       <c r="B81" t="s">
         <v>197</v>
       </c>
@@ -3363,7 +3528,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
+      <c r="A82" s="7"/>
       <c r="B82" t="s">
         <v>199</v>
       </c>
@@ -3384,7 +3549,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
+      <c r="A83" s="7"/>
       <c r="B83" t="s">
         <v>202</v>
       </c>
@@ -3405,7 +3570,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
+      <c r="A84" s="7"/>
       <c r="B84" t="s">
         <v>205</v>
       </c>
@@ -3426,7 +3591,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>208</v>
       </c>
       <c r="F85" t="s">
@@ -3437,7 +3602,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
+      <c r="A86" s="7"/>
       <c r="B86" t="s">
         <v>210</v>
       </c>
@@ -3455,7 +3620,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
+      <c r="A87" s="7"/>
       <c r="B87" t="s">
         <v>212</v>
       </c>
@@ -3476,7 +3641,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
+      <c r="A88" s="7"/>
       <c r="B88" t="s">
         <v>217</v>
       </c>
@@ -3497,7 +3662,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
+      <c r="A89" s="7"/>
       <c r="B89" t="s">
         <v>221</v>
       </c>
@@ -3518,7 +3683,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
+      <c r="A90" s="7"/>
       <c r="B90" t="s">
         <v>223</v>
       </c>
@@ -3539,7 +3704,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
+      <c r="A91" s="7"/>
       <c r="B91" t="s">
         <v>225</v>
       </c>
@@ -3560,7 +3725,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
+      <c r="A92" s="7"/>
       <c r="B92" t="s">
         <v>227</v>
       </c>
@@ -3581,7 +3746,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F93" t="s">
@@ -3592,8 +3757,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F94" t="s">
@@ -3604,8 +3769,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
       <c r="C95" t="s">
         <v>233</v>
       </c>
@@ -3619,15 +3784,15 @@
         <v>229</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
       <c r="C96" t="s">
         <v>236</v>
       </c>
@@ -3641,20 +3806,20 @@
         <v>229</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
+    <row r="97" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
       <c r="C97" t="s">
         <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F97" t="s">
         <v>229</v>
@@ -3663,96 +3828,93 @@
         <v>241</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>242</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
       <c r="C98" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D98" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F98" t="s">
         <v>229</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
+        <v>433</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
       <c r="C99" t="s">
-        <v>386</v>
-      </c>
-      <c r="D99">
+        <v>435</v>
+      </c>
+      <c r="D99" t="s">
+        <v>437</v>
+      </c>
+      <c r="F99" t="s">
+        <v>229</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" t="s">
+        <v>436</v>
+      </c>
+      <c r="D100" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" t="s">
+        <v>229</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" t="s">
+        <v>382</v>
+      </c>
+      <c r="D101">
         <v>50</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F99" t="s">
-        <v>229</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F101" t="s">
+        <v>229</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" t="s">
-        <v>387</v>
-      </c>
-      <c r="D100" t="s">
-        <v>155</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F100" t="s">
-        <v>229</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101">
-        <v>100</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s">
-        <v>229</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" t="s">
         <v>383</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" t="s">
-        <v>258</v>
       </c>
       <c r="D102" t="s">
         <v>155</v>
@@ -3767,284 +3929,291 @@
         <v>384</v>
       </c>
       <c r="H102" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" t="s">
+        <v>256</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s">
+        <v>229</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104" t="s">
+        <v>155</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" t="s">
+        <v>229</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" t="s">
+    <row r="105" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" t="s">
         <v>261</v>
       </c>
-      <c r="D103" t="s">
-        <v>395</v>
-      </c>
-      <c r="F103" t="s">
-        <v>229</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="D105" t="s">
+        <v>390</v>
+      </c>
+      <c r="F105" t="s">
+        <v>229</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8" t="s">
+    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F104" t="s">
-        <v>229</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="F106" t="s">
+        <v>229</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" t="s">
+    <row r="107" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" t="s">
         <v>233</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>155</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F105" t="s">
-        <v>229</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="F107" t="s">
+        <v>229</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" t="s">
+    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" t="s">
         <v>236</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>155</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F106" t="s">
-        <v>229</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="F108" t="s">
+        <v>229</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" t="s">
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" t="s">
         <v>239</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>240</v>
       </c>
-      <c r="F107" t="s">
-        <v>229</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="F109" t="s">
+        <v>229</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" t="s">
+    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" t="s">
         <v>243</v>
       </c>
-      <c r="D108" t="s">
-        <v>396</v>
-      </c>
-      <c r="F108" t="s">
-        <v>229</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="D110" t="s">
+        <v>391</v>
+      </c>
+      <c r="F110" t="s">
+        <v>229</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" t="s">
+    <row r="111" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" t="s">
+        <v>435</v>
+      </c>
+      <c r="D111" t="s">
+        <v>441</v>
+      </c>
+      <c r="F111" t="s">
+        <v>229</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" t="s">
+        <v>436</v>
+      </c>
+      <c r="D112" t="s">
+        <v>280</v>
+      </c>
+      <c r="F112" t="s">
+        <v>229</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" t="s">
         <v>245</v>
       </c>
-      <c r="D109">
+      <c r="D113">
         <v>60</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F109" t="s">
-        <v>229</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="F113" t="s">
+        <v>229</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" t="s">
+    <row r="114" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" t="s">
         <v>249</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D114" t="s">
         <v>250</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F110" t="s">
-        <v>229</v>
-      </c>
-      <c r="G110" s="2" t="s">
+      <c r="F114" t="s">
+        <v>229</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" t="s">
+    <row r="115" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" t="s">
         <v>254</v>
       </c>
-      <c r="D111">
+      <c r="D115">
         <v>100</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F111" t="s">
-        <v>229</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="F115" t="s">
+        <v>229</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" t="s">
+    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" t="s">
         <v>256</v>
       </c>
-      <c r="D112">
+      <c r="D116">
         <v>100</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F112" t="s">
-        <v>229</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="F116" t="s">
+        <v>229</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" t="s">
+    <row r="117" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" t="s">
         <v>258</v>
-      </c>
-      <c r="D113" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F113" t="s">
-        <v>229</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" t="s">
-        <v>261</v>
-      </c>
-      <c r="D114" t="s">
-        <v>395</v>
-      </c>
-      <c r="F114" t="s">
-        <v>229</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F115" t="s">
-        <v>229</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" t="s">
-        <v>233</v>
-      </c>
-      <c r="D116" t="s">
-        <v>62</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F116" t="s">
-        <v>229</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" t="s">
-        <v>236</v>
       </c>
       <c r="D117" t="s">
         <v>155</v>
@@ -4056,734 +4225,1166 @@
         <v>229</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D118" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F118" t="s">
         <v>229</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F119" t="s">
+        <v>229</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" t="s">
+        <v>233</v>
+      </c>
+      <c r="D120" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120" t="s">
+        <v>229</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" t="s">
+        <v>155</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121" t="s">
+        <v>229</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" t="s">
+        <v>392</v>
+      </c>
+      <c r="F122" t="s">
+        <v>229</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" t="s">
         <v>243</v>
       </c>
-      <c r="D119" t="s">
-        <v>392</v>
-      </c>
-      <c r="F119" t="s">
-        <v>229</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="D123" t="s">
+        <v>387</v>
+      </c>
+      <c r="F123" t="s">
+        <v>229</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" t="s">
+    <row r="124" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" t="s">
+        <v>435</v>
+      </c>
+      <c r="D124" t="s">
+        <v>443</v>
+      </c>
+      <c r="F124" t="s">
+        <v>229</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" t="s">
+        <v>436</v>
+      </c>
+      <c r="D125" t="s">
+        <v>280</v>
+      </c>
+      <c r="F125" t="s">
+        <v>229</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" t="s">
         <v>271</v>
       </c>
-      <c r="D120">
+      <c r="D126">
         <v>60</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F120" t="s">
-        <v>229</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="F126" t="s">
+        <v>229</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F121" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
-      <c r="B122" t="s">
+      <c r="F127" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="7"/>
+      <c r="B128" t="s">
         <v>233</v>
       </c>
-      <c r="C122" t="b">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="D128" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F122" t="s">
-        <v>229</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="F128" t="s">
+        <v>229</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
-      <c r="B123" t="s">
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="7"/>
+      <c r="B129" t="s">
         <v>239</v>
       </c>
-      <c r="C123" t="s">
-        <v>397</v>
-      </c>
-      <c r="F123" t="s">
-        <v>229</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="D129" t="s">
+        <v>445</v>
+      </c>
+      <c r="F129" t="s">
+        <v>229</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
-      <c r="B124" t="s">
+    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="7"/>
+      <c r="B130" t="s">
         <v>243</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D130" t="s">
+        <v>446</v>
+      </c>
+      <c r="F130" t="s">
+        <v>229</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F124" t="s">
-        <v>229</v>
-      </c>
-      <c r="G124" s="2" t="s">
+    </row>
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="7"/>
+      <c r="B131" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
-      <c r="B125" t="s">
+      <c r="D131">
+        <v>0.01</v>
+      </c>
+      <c r="F131" t="s">
+        <v>229</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C125">
-        <v>0.01</v>
-      </c>
-      <c r="F125" t="s">
-        <v>229</v>
-      </c>
-      <c r="G125" s="2" t="s">
+    </row>
+    <row r="132" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="7"/>
+      <c r="B132" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
-      <c r="B126" t="s">
+      <c r="D132" t="s">
         <v>280</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E132" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F132" t="s">
+        <v>229</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F126" t="s">
-        <v>229</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H126" s="2" t="s">
+    </row>
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="7"/>
+      <c r="B133" t="s">
+        <v>460</v>
+      </c>
+      <c r="D133">
+        <v>10</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F133" t="s">
+        <v>229</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="7"/>
+      <c r="B134" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="8"/>
-      <c r="B127" t="s">
-        <v>285</v>
-      </c>
-      <c r="C127" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" t="s">
-        <v>229</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F128" t="s">
-        <v>229</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
-      <c r="B129" t="s">
-        <v>290</v>
-      </c>
-      <c r="D129" t="s">
-        <v>155</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F129" t="s">
-        <v>229</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
-      <c r="B130" t="s">
-        <v>293</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" s="3">
-        <v>43922</v>
-      </c>
-      <c r="F130" t="s">
-        <v>229</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
-      <c r="B131" t="s">
-        <v>296</v>
-      </c>
-      <c r="D131" t="s">
-        <v>297</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F131" t="s">
-        <v>229</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
-      <c r="B132" t="s">
-        <v>300</v>
-      </c>
-      <c r="D132" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F132" t="s">
-        <v>229</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F133" t="s">
-        <v>303</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
-      <c r="B134" t="s">
-        <v>305</v>
-      </c>
       <c r="D134" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F134" t="s">
-        <v>306</v>
+        <v>229</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="7"/>
       <c r="B135" t="s">
-        <v>309</v>
+        <v>447</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F135" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
-        <v>313</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="7"/>
+      <c r="B136" t="s">
+        <v>448</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="F136" t="s">
-        <v>314</v>
+        <v>229</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" s="7"/>
       <c r="B137" t="s">
-        <v>316</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>63</v>
+        <v>449</v>
+      </c>
+      <c r="D137" t="s">
+        <v>459</v>
       </c>
       <c r="F137" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
+        <v>467</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="7"/>
       <c r="B138" t="s">
-        <v>353</v>
-      </c>
-      <c r="D138" t="s">
-        <v>318</v>
+        <v>450</v>
+      </c>
+      <c r="D138">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="F138" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
+      <c r="A139" s="7"/>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F139" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" s="7"/>
       <c r="B140" t="s">
-        <v>325</v>
+        <v>452</v>
       </c>
       <c r="D140">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="F140" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="10" t="s">
-        <v>314</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A141" s="7"/>
+      <c r="B141" t="s">
+        <v>453</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F141" t="s">
-        <v>314</v>
+        <v>229</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="10"/>
-      <c r="B142" s="9" t="s">
-        <v>415</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="7"/>
+      <c r="B142" t="s">
+        <v>454</v>
+      </c>
+      <c r="D142">
+        <v>80</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F142" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="10"/>
-      <c r="B143" s="9"/>
-      <c r="C143" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A143" s="7"/>
+      <c r="B143" t="s">
+        <v>455</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F143" t="s">
-        <v>314</v>
+        <v>229</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="10"/>
-      <c r="B144" s="9"/>
-      <c r="C144" t="s">
-        <v>333</v>
-      </c>
-      <c r="D144" t="s">
-        <v>334</v>
+      <c r="A144" s="7"/>
+      <c r="B144" t="s">
+        <v>456</v>
+      </c>
+      <c r="D144">
+        <v>99</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>335</v>
+        <v>463</v>
       </c>
       <c r="F144" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>337</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="10"/>
-      <c r="B145" s="9"/>
-      <c r="C145" t="s">
-        <v>412</v>
-      </c>
-      <c r="D145" t="s">
-        <v>413</v>
+      <c r="A145" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="F145" t="s">
-        <v>314</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="10"/>
-      <c r="B146" s="8" t="s">
-        <v>328</v>
+      <c r="A146" s="7"/>
+      <c r="B146" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F146" t="s">
-        <v>314</v>
+        <v>229</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="10"/>
-      <c r="B147" s="8"/>
-      <c r="C147" t="s">
-        <v>233</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E147" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="7"/>
+      <c r="B147" t="s">
+        <v>291</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3">
+        <v>43922</v>
+      </c>
+      <c r="F147" t="s">
+        <v>229</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="7"/>
+      <c r="B148" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" t="s">
+        <v>295</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F148" t="s">
+        <v>229</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="7"/>
+      <c r="B149" t="s">
+        <v>477</v>
+      </c>
+      <c r="D149" t="s">
+        <v>316</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F149" t="s">
+        <v>229</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="7"/>
+      <c r="B150" t="s">
+        <v>478</v>
+      </c>
+      <c r="D150" t="s">
+        <v>479</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F150" t="s">
+        <v>229</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="7"/>
+      <c r="B151" t="s">
+        <v>298</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F151" t="s">
+        <v>229</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
+        <v>301</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="7"/>
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F147" t="s">
-        <v>314</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="10"/>
-      <c r="B148" s="8"/>
-      <c r="C148" t="s">
-        <v>331</v>
-      </c>
-      <c r="D148" t="s">
-        <v>399</v>
-      </c>
-      <c r="F148" t="s">
-        <v>314</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="10"/>
-      <c r="B149" s="8"/>
-      <c r="C149" t="s">
-        <v>333</v>
-      </c>
-      <c r="D149" t="s">
-        <v>334</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F149" t="s">
-        <v>314</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="10"/>
-      <c r="B150" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="F150" t="s">
-        <v>314</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="10"/>
-      <c r="B151" s="9"/>
-      <c r="C151" t="s">
-        <v>233</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F151" t="s">
-        <v>314</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="10"/>
-      <c r="B152" s="9"/>
-      <c r="C152" t="s">
-        <v>423</v>
-      </c>
-      <c r="D152" t="s">
-        <v>399</v>
-      </c>
-      <c r="F152" t="s">
-        <v>314</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="10"/>
-      <c r="B153" s="9"/>
-      <c r="C153" t="s">
-        <v>425</v>
-      </c>
-      <c r="D153" t="s">
-        <v>427</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="F153" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A154" s="10"/>
-      <c r="B154" s="9"/>
-      <c r="C154" t="s">
-        <v>426</v>
+        <v>305</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A154" s="7"/>
+      <c r="B154" t="s">
+        <v>307</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F154" t="s">
+        <v>308</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F155" t="s">
+        <v>312</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A156" s="7"/>
+      <c r="B156" t="s">
         <v>314</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="10"/>
-      <c r="B155" s="9"/>
-      <c r="C155" t="s">
-        <v>434</v>
-      </c>
-      <c r="D155">
-        <v>0.97</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F155" t="s">
-        <v>314</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="6"/>
-      <c r="B156" s="8" t="s">
-        <v>338</v>
+      <c r="D156" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F156" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
-      <c r="B157" s="8"/>
-      <c r="C157" t="s">
+        <v>312</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="7"/>
+      <c r="B157" t="s">
+        <v>350</v>
+      </c>
+      <c r="D157" t="s">
+        <v>316</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F157" t="s">
+        <v>312</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="7"/>
+      <c r="B158" t="s">
+        <v>319</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>312</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="7"/>
+      <c r="B159" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159">
+        <v>10000</v>
+      </c>
+      <c r="F159" t="s">
+        <v>312</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
+        <v>312</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F161" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" t="s">
         <v>233</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="D162" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F162" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" t="s">
+        <v>330</v>
+      </c>
+      <c r="D163" t="s">
+        <v>331</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F163" t="s">
+        <v>312</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" t="s">
+        <v>406</v>
+      </c>
+      <c r="D164" t="s">
+        <v>407</v>
+      </c>
+      <c r="F164" t="s">
+        <v>312</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="8"/>
+      <c r="B165" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F165" t="s">
+        <v>312</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="8"/>
+      <c r="B166" s="7"/>
+      <c r="C166" t="s">
+        <v>233</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F166" t="s">
+        <v>312</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="8"/>
+      <c r="B167" s="7"/>
+      <c r="C167" t="s">
+        <v>328</v>
+      </c>
+      <c r="D167" t="s">
+        <v>393</v>
+      </c>
+      <c r="F167" t="s">
+        <v>312</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A168" s="8"/>
+      <c r="B168" s="7"/>
+      <c r="C168" t="s">
+        <v>330</v>
+      </c>
+      <c r="D168" t="s">
+        <v>331</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
+        <v>312</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F169" t="s">
+        <v>312</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" t="s">
+        <v>233</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F170" t="s">
+        <v>312</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" t="s">
+        <v>417</v>
+      </c>
+      <c r="D171" t="s">
+        <v>393</v>
+      </c>
+      <c r="F171" t="s">
+        <v>312</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" t="s">
+        <v>486</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F172" t="s">
+        <v>312</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" t="s">
+        <v>488</v>
+      </c>
+      <c r="D173" t="s">
+        <v>489</v>
+      </c>
+      <c r="F173" t="s">
+        <v>312</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" t="s">
+        <v>492</v>
+      </c>
+      <c r="D174" t="s">
+        <v>491</v>
+      </c>
+      <c r="F174" t="s">
+        <v>312</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" t="s">
+        <v>419</v>
+      </c>
+      <c r="D175" t="s">
+        <v>421</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F175" t="s">
+        <v>312</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" t="s">
+        <v>420</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F176" t="s">
+        <v>312</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" t="s">
+        <v>428</v>
+      </c>
+      <c r="D177">
+        <v>0.97</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F177" t="s">
+        <v>312</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="8"/>
+      <c r="B178" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F178" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="8"/>
+      <c r="B179" s="7"/>
+      <c r="C179" t="s">
+        <v>233</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F179" t="s">
+        <v>312</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="8"/>
+      <c r="B180" s="7"/>
+      <c r="C180" t="s">
+        <v>337</v>
+      </c>
+      <c r="D180" t="s">
+        <v>280</v>
+      </c>
+      <c r="F180" t="s">
+        <v>312</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="8"/>
+      <c r="B181" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="6"/>
-      <c r="B158" s="8"/>
-      <c r="C158" t="s">
+      <c r="D181" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F181" t="s">
+        <v>312</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D158" t="s">
-        <v>281</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="6"/>
-      <c r="B159" t="s">
-        <v>342</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>343</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H159" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
+  <autoFilter ref="A1:H181" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
   <mergeCells count="29">
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="A160:A181"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="A64:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A93:A126"/>
+    <mergeCell ref="B106:B118"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="A127:A144"/>
+    <mergeCell ref="A145:A151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="B94:B105"/>
+    <mergeCell ref="B169:B177"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
@@ -4794,25 +5395,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="A64:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A93:A120"/>
-    <mergeCell ref="B104:B114"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B94:B103"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="A141:A155"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B146:B149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/config_explained.xlsx
+++ b/documentation/config_explained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heintzbu/Documents/Programs/myOwn/dadasnake/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09153AC7-8F6E-764F-8497-E3F60482C4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664761EB-1ECF-0840-9612-984CF2EB6704}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F207B228-D75F-344A-ADB6-4CA41A47821F}"/>
   </bookViews>
@@ -1365,12 +1365,6 @@
     <t xml:space="preserve">   false</t>
   </si>
   <si>
-    <t xml:space="preserve">    "../DBs/blast"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   nt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    run_basta</t>
   </si>
   <si>
@@ -1510,6 +1504,12 @@
   </si>
   <si>
     <t>name of the user database folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   16S_ribosomal_RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "../DBs/ncbi_16SMicrobial"</t>
   </si>
 </sst>
 </file>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B259DD-FAC6-FB4A-84F8-11B4141970E7}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4433,7 +4433,7 @@
         <v>239</v>
       </c>
       <c r="D129" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="F129" t="s">
         <v>229</v>
@@ -4448,7 +4448,7 @@
         <v>243</v>
       </c>
       <c r="D130" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="F130" t="s">
         <v>229</v>
@@ -4496,7 +4496,7 @@
     <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D133">
         <v>10</v>
@@ -4508,7 +4508,7 @@
         <v>229</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4529,13 +4529,13 @@
         <v>285</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>386</v>
@@ -4547,49 +4547,49 @@
         <v>229</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F136" t="s">
         <v>229</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D137" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F137" t="s">
         <v>229</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D138">
         <v>1.0000000000000001E-5</v>
@@ -4601,13 +4601,13 @@
         <v>229</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D139">
         <v>100</v>
@@ -4619,13 +4619,13 @@
         <v>229</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4637,16 +4637,16 @@
         <v>229</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -4658,16 +4658,16 @@
         <v>229</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D142">
         <v>80</v>
@@ -4679,13 +4679,13 @@
         <v>229</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>386</v>
@@ -4697,25 +4697,25 @@
         <v>229</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D144">
         <v>99</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F144" t="s">
         <v>229</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4792,43 +4792,43 @@
     <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D149" t="s">
         <v>316</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F149" t="s">
         <v>229</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" t="s">
+        <v>476</v>
+      </c>
+      <c r="D150" t="s">
+        <v>477</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F150" t="s">
+        <v>229</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="D150" t="s">
-        <v>479</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F150" t="s">
-        <v>229</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -4949,7 +4949,7 @@
         <v>318</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>360</v>
@@ -5203,39 +5203,39 @@
         <v>312</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D173" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F173" t="s">
         <v>312</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D174" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F174" t="s">
         <v>312</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5366,6 +5366,19 @@
   </sheetData>
   <autoFilter ref="A1:H181" xr:uid="{65E3A469-1B8A-364D-8D4D-FD3FF55840DE}"/>
   <mergeCells count="29">
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="B94:B105"/>
+    <mergeCell ref="B169:B177"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="B161:B164"/>
     <mergeCell ref="B50:B52"/>
@@ -5382,19 +5395,6 @@
     <mergeCell ref="A127:A144"/>
     <mergeCell ref="A145:A151"/>
     <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="B94:B105"/>
-    <mergeCell ref="B169:B177"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
